--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\SWEN-Project\team-project-2175-swen-261-13-b-checker-masters\etc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4320" windowWidth="18705" windowHeight="7545" tabRatio="500"/>
+    <workbookView xWindow="-12" yWindow="4320" windowWidth="18708" windowHeight="7548" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Instructions</t>
   </si>
@@ -112,11 +117,17 @@
   <si>
     <t>Given that someone else with my name has signed-in when I enter my name in the sign-in form then I expect the system to reject my sign-in and return the sign-in form for me to try a different name.</t>
   </si>
+  <si>
+    <t>SJD; 2/28/18</t>
+  </si>
+  <si>
+    <t>SJD; 2/28/18; takes non-alphanumerical characters; SJD; 2/28/18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -256,6 +267,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -582,20 +596,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="106.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -603,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -611,7 +625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,15 +644,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H597"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" style="2" customWidth="1"/>
     <col min="2" max="2" width="60" style="2" customWidth="1"/>
@@ -648,10 +662,10 @@
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" customWidth="1"/>
     <col min="8" max="8" width="60" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="5"/>
+    <col min="9" max="16384" width="10.8984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -677,7 +691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -685,64 +699,85 @@
         <v>5</v>
       </c>
       <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="8"/>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="8"/>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="8"/>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="8"/>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8"/>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -750,2978 +785,3001 @@
         <v>9</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8"/>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8"/>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="8"/>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="8"/>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="8"/>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="8"/>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="8"/>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
       <c r="E19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="E23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="8"/>
       <c r="E27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C28" s="8"/>
       <c r="E28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C29" s="8"/>
       <c r="E29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" s="8"/>
       <c r="E30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" s="8"/>
       <c r="E32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="8"/>
       <c r="E33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="8"/>
       <c r="E34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="8"/>
       <c r="E35" s="8"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="8"/>
       <c r="E36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="8"/>
       <c r="E37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="8"/>
       <c r="E38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="8"/>
       <c r="E39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="8"/>
       <c r="E41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
       <c r="E42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="8"/>
       <c r="E43" s="8"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" s="8"/>
       <c r="E44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" s="8"/>
       <c r="E48" s="8"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="8"/>
       <c r="E49" s="8"/>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="8"/>
       <c r="E50" s="8"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="8"/>
       <c r="E51" s="8"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="8"/>
       <c r="E52" s="8"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="8"/>
       <c r="E53" s="8"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="8"/>
       <c r="E54" s="8"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="8"/>
       <c r="E55" s="8"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="8"/>
       <c r="E56" s="8"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="8"/>
       <c r="E57" s="8"/>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="8"/>
       <c r="E58" s="8"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="8"/>
       <c r="E59" s="8"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="8"/>
       <c r="E60" s="8"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="8"/>
       <c r="E61" s="8"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="8"/>
       <c r="E62" s="8"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="8"/>
       <c r="E63" s="8"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" s="8"/>
       <c r="E64" s="8"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="8"/>
       <c r="E65" s="8"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="8"/>
       <c r="E66" s="8"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" s="8"/>
       <c r="E67" s="8"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" s="8"/>
       <c r="E68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" s="8"/>
       <c r="E69" s="8"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" s="8"/>
       <c r="E70" s="8"/>
       <c r="G70" s="8"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" s="8"/>
       <c r="E71" s="8"/>
       <c r="G71" s="8"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" s="8"/>
       <c r="E72" s="8"/>
       <c r="G72" s="8"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" s="8"/>
       <c r="E73" s="8"/>
       <c r="G73" s="8"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" s="8"/>
       <c r="E74" s="8"/>
       <c r="G74" s="8"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" s="8"/>
       <c r="E75" s="8"/>
       <c r="G75" s="8"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" s="8"/>
       <c r="E76" s="8"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" s="8"/>
       <c r="E77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" s="8"/>
       <c r="E78" s="8"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" s="8"/>
       <c r="E79" s="8"/>
       <c r="G79" s="8"/>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" s="8"/>
       <c r="E80" s="8"/>
       <c r="G80" s="8"/>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" s="8"/>
       <c r="E81" s="8"/>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" s="8"/>
       <c r="E82" s="8"/>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="8"/>
       <c r="E83" s="8"/>
       <c r="G83" s="8"/>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" s="8"/>
       <c r="E84" s="8"/>
       <c r="G84" s="8"/>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" s="8"/>
       <c r="E85" s="8"/>
       <c r="G85" s="8"/>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" s="8"/>
       <c r="E86" s="8"/>
       <c r="G86" s="8"/>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87" s="8"/>
       <c r="E87" s="8"/>
       <c r="G87" s="8"/>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88" s="8"/>
       <c r="E88" s="8"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" s="8"/>
       <c r="E89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" s="8"/>
       <c r="E90" s="8"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" s="8"/>
       <c r="E91" s="8"/>
       <c r="G91" s="8"/>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="8"/>
       <c r="E92" s="8"/>
       <c r="G92" s="8"/>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93" s="8"/>
       <c r="E93" s="8"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" s="8"/>
       <c r="E94" s="8"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" s="8"/>
       <c r="E95" s="8"/>
       <c r="G95" s="8"/>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" s="8"/>
       <c r="E96" s="8"/>
       <c r="G96" s="8"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="8"/>
       <c r="E97" s="8"/>
       <c r="G97" s="8"/>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="8"/>
       <c r="E98" s="8"/>
       <c r="G98" s="8"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="8"/>
       <c r="E99" s="8"/>
       <c r="G99" s="8"/>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" s="8"/>
       <c r="E100" s="8"/>
       <c r="G100" s="8"/>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" s="8"/>
       <c r="E101" s="8"/>
       <c r="G101" s="8"/>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102" s="8"/>
       <c r="E102" s="8"/>
       <c r="G102" s="8"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103" s="8"/>
       <c r="E103" s="8"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104" s="8"/>
       <c r="E104" s="8"/>
       <c r="G104" s="8"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105" s="8"/>
       <c r="E105" s="8"/>
       <c r="G105" s="8"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106" s="8"/>
       <c r="E106" s="8"/>
       <c r="G106" s="8"/>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C107" s="8"/>
       <c r="E107" s="8"/>
       <c r="G107" s="8"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108" s="8"/>
       <c r="E108" s="8"/>
       <c r="G108" s="8"/>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109" s="8"/>
       <c r="E109" s="8"/>
       <c r="G109" s="8"/>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110" s="8"/>
       <c r="E110" s="8"/>
       <c r="G110" s="8"/>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111" s="8"/>
       <c r="E111" s="8"/>
       <c r="G111" s="8"/>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C112" s="8"/>
       <c r="E112" s="8"/>
       <c r="G112" s="8"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113" s="8"/>
       <c r="E113" s="8"/>
       <c r="G113" s="8"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114" s="8"/>
       <c r="E114" s="8"/>
       <c r="G114" s="8"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115" s="8"/>
       <c r="E115" s="8"/>
       <c r="G115" s="8"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116" s="8"/>
       <c r="E116" s="8"/>
       <c r="G116" s="8"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C117" s="8"/>
       <c r="E117" s="8"/>
       <c r="G117" s="8"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C118" s="8"/>
       <c r="E118" s="8"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119" s="8"/>
       <c r="E119" s="8"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120" s="8"/>
       <c r="E120" s="8"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121" s="8"/>
       <c r="E121" s="8"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C122" s="8"/>
       <c r="E122" s="8"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C123" s="8"/>
       <c r="E123" s="8"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124" s="8"/>
       <c r="E124" s="8"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125" s="8"/>
       <c r="E125" s="8"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126" s="8"/>
       <c r="E126" s="8"/>
       <c r="G126" s="8"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C127" s="8"/>
       <c r="E127" s="8"/>
       <c r="G127" s="8"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C128" s="8"/>
       <c r="E128" s="8"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129" s="8"/>
       <c r="E129" s="8"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130" s="8"/>
       <c r="E130" s="8"/>
       <c r="G130" s="8"/>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131" s="8"/>
       <c r="E131" s="8"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132" s="8"/>
       <c r="E132" s="8"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C133" s="8"/>
       <c r="E133" s="8"/>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134" s="8"/>
       <c r="E134" s="8"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135" s="8"/>
       <c r="E135" s="8"/>
       <c r="G135" s="8"/>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136" s="8"/>
       <c r="E136" s="8"/>
       <c r="G136" s="8"/>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137" s="8"/>
       <c r="E137" s="8"/>
       <c r="G137" s="8"/>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138" s="8"/>
       <c r="E138" s="8"/>
       <c r="G138" s="8"/>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139" s="8"/>
       <c r="E139" s="8"/>
       <c r="G139" s="8"/>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140" s="8"/>
       <c r="E140" s="8"/>
       <c r="G140" s="8"/>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141" s="8"/>
       <c r="E141" s="8"/>
       <c r="G141" s="8"/>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142" s="8"/>
       <c r="E142" s="8"/>
       <c r="G142" s="8"/>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C143" s="8"/>
       <c r="E143" s="8"/>
       <c r="G143" s="8"/>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144" s="8"/>
       <c r="E144" s="8"/>
       <c r="G144" s="8"/>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145" s="8"/>
       <c r="E145" s="8"/>
       <c r="G145" s="8"/>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C146" s="8"/>
       <c r="E146" s="8"/>
       <c r="G146" s="8"/>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C147" s="8"/>
       <c r="E147" s="8"/>
       <c r="G147" s="8"/>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C148" s="8"/>
       <c r="E148" s="8"/>
       <c r="G148" s="8"/>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C149" s="8"/>
       <c r="E149" s="8"/>
       <c r="G149" s="8"/>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C150" s="8"/>
       <c r="E150" s="8"/>
       <c r="G150" s="8"/>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C151" s="8"/>
       <c r="E151" s="8"/>
       <c r="G151" s="8"/>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C152" s="8"/>
       <c r="E152" s="8"/>
       <c r="G152" s="8"/>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C153" s="8"/>
       <c r="E153" s="8"/>
       <c r="G153" s="8"/>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C154" s="8"/>
       <c r="E154" s="8"/>
       <c r="G154" s="8"/>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C155" s="8"/>
       <c r="E155" s="8"/>
       <c r="G155" s="8"/>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C156" s="8"/>
       <c r="E156" s="8"/>
       <c r="G156" s="8"/>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C157" s="8"/>
       <c r="E157" s="8"/>
       <c r="G157" s="8"/>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C158" s="8"/>
       <c r="E158" s="8"/>
       <c r="G158" s="8"/>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C159" s="8"/>
       <c r="E159" s="8"/>
       <c r="G159" s="8"/>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C160" s="8"/>
       <c r="E160" s="8"/>
       <c r="G160" s="8"/>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C161" s="8"/>
       <c r="E161" s="8"/>
       <c r="G161" s="8"/>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C162" s="8"/>
       <c r="E162" s="8"/>
       <c r="G162" s="8"/>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C163" s="8"/>
       <c r="E163" s="8"/>
       <c r="G163" s="8"/>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C164" s="8"/>
       <c r="E164" s="8"/>
       <c r="G164" s="8"/>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C165" s="8"/>
       <c r="E165" s="8"/>
       <c r="G165" s="8"/>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C166" s="8"/>
       <c r="E166" s="8"/>
       <c r="G166" s="8"/>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C167" s="8"/>
       <c r="E167" s="8"/>
       <c r="G167" s="8"/>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C168" s="8"/>
       <c r="E168" s="8"/>
       <c r="G168" s="8"/>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C169" s="8"/>
       <c r="E169" s="8"/>
       <c r="G169" s="8"/>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C170" s="8"/>
       <c r="E170" s="8"/>
       <c r="G170" s="8"/>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C171" s="8"/>
       <c r="E171" s="8"/>
       <c r="G171" s="8"/>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C172" s="8"/>
       <c r="E172" s="8"/>
       <c r="G172" s="8"/>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C173" s="8"/>
       <c r="E173" s="8"/>
       <c r="G173" s="8"/>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C174" s="8"/>
       <c r="E174" s="8"/>
       <c r="G174" s="8"/>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C175" s="8"/>
       <c r="E175" s="8"/>
       <c r="G175" s="8"/>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C176" s="8"/>
       <c r="E176" s="8"/>
       <c r="G176" s="8"/>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C177" s="8"/>
       <c r="E177" s="8"/>
       <c r="G177" s="8"/>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C178" s="8"/>
       <c r="E178" s="8"/>
       <c r="G178" s="8"/>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C179" s="8"/>
       <c r="E179" s="8"/>
       <c r="G179" s="8"/>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C180" s="8"/>
       <c r="E180" s="8"/>
       <c r="G180" s="8"/>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C181" s="8"/>
       <c r="E181" s="8"/>
       <c r="G181" s="8"/>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C182" s="8"/>
       <c r="E182" s="8"/>
       <c r="G182" s="8"/>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C183" s="8"/>
       <c r="E183" s="8"/>
       <c r="G183" s="8"/>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C184" s="8"/>
       <c r="E184" s="8"/>
       <c r="G184" s="8"/>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C185" s="8"/>
       <c r="E185" s="8"/>
       <c r="G185" s="8"/>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C186" s="8"/>
       <c r="E186" s="8"/>
       <c r="G186" s="8"/>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C187" s="8"/>
       <c r="E187" s="8"/>
       <c r="G187" s="8"/>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C188" s="8"/>
       <c r="E188" s="8"/>
       <c r="G188" s="8"/>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C189" s="8"/>
       <c r="E189" s="8"/>
       <c r="G189" s="8"/>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C190" s="8"/>
       <c r="E190" s="8"/>
       <c r="G190" s="8"/>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C191" s="8"/>
       <c r="E191" s="8"/>
       <c r="G191" s="8"/>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C192" s="8"/>
       <c r="E192" s="8"/>
       <c r="G192" s="8"/>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C193" s="8"/>
       <c r="E193" s="8"/>
       <c r="G193" s="8"/>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C194" s="8"/>
       <c r="E194" s="8"/>
       <c r="G194" s="8"/>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C195" s="8"/>
       <c r="E195" s="8"/>
       <c r="G195" s="8"/>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C196" s="8"/>
       <c r="E196" s="8"/>
       <c r="G196" s="8"/>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C197" s="8"/>
       <c r="E197" s="8"/>
       <c r="G197" s="8"/>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C198" s="8"/>
       <c r="E198" s="8"/>
       <c r="G198" s="8"/>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C199" s="8"/>
       <c r="E199" s="8"/>
       <c r="G199" s="8"/>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C200" s="8"/>
       <c r="E200" s="8"/>
       <c r="G200" s="8"/>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C201" s="8"/>
       <c r="E201" s="8"/>
       <c r="G201" s="8"/>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C202" s="8"/>
       <c r="E202" s="8"/>
       <c r="G202" s="8"/>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C203" s="8"/>
       <c r="E203" s="8"/>
       <c r="G203" s="8"/>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C204" s="8"/>
       <c r="E204" s="8"/>
       <c r="G204" s="8"/>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C205" s="8"/>
       <c r="E205" s="8"/>
       <c r="G205" s="8"/>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C206" s="8"/>
       <c r="E206" s="8"/>
       <c r="G206" s="8"/>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C207" s="8"/>
       <c r="E207" s="8"/>
       <c r="G207" s="8"/>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C208" s="8"/>
       <c r="E208" s="8"/>
       <c r="G208" s="8"/>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C209" s="8"/>
       <c r="E209" s="8"/>
       <c r="G209" s="8"/>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C210" s="8"/>
       <c r="E210" s="8"/>
       <c r="G210" s="8"/>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C211" s="8"/>
       <c r="E211" s="8"/>
       <c r="G211" s="8"/>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C212" s="8"/>
       <c r="E212" s="8"/>
       <c r="G212" s="8"/>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C213" s="8"/>
       <c r="E213" s="8"/>
       <c r="G213" s="8"/>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C214" s="8"/>
       <c r="E214" s="8"/>
       <c r="G214" s="8"/>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C215" s="8"/>
       <c r="E215" s="8"/>
       <c r="G215" s="8"/>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C216" s="8"/>
       <c r="E216" s="8"/>
       <c r="G216" s="8"/>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C217" s="8"/>
       <c r="E217" s="8"/>
       <c r="G217" s="8"/>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C218" s="8"/>
       <c r="E218" s="8"/>
       <c r="G218" s="8"/>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C219" s="8"/>
       <c r="E219" s="8"/>
       <c r="G219" s="8"/>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C220" s="8"/>
       <c r="E220" s="8"/>
       <c r="G220" s="8"/>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C221" s="8"/>
       <c r="E221" s="8"/>
       <c r="G221" s="8"/>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C222" s="8"/>
       <c r="E222" s="8"/>
       <c r="G222" s="8"/>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C223" s="8"/>
       <c r="E223" s="8"/>
       <c r="G223" s="8"/>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C224" s="8"/>
       <c r="E224" s="8"/>
       <c r="G224" s="8"/>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C225" s="8"/>
       <c r="E225" s="8"/>
       <c r="G225" s="8"/>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C226" s="8"/>
       <c r="E226" s="8"/>
       <c r="G226" s="8"/>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C227" s="8"/>
       <c r="E227" s="8"/>
       <c r="G227" s="8"/>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C228" s="8"/>
       <c r="E228" s="8"/>
       <c r="G228" s="8"/>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C229" s="8"/>
       <c r="E229" s="8"/>
       <c r="G229" s="8"/>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C230" s="8"/>
       <c r="E230" s="8"/>
       <c r="G230" s="8"/>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C231" s="8"/>
       <c r="E231" s="8"/>
       <c r="G231" s="8"/>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C232" s="8"/>
       <c r="E232" s="8"/>
       <c r="G232" s="8"/>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C233" s="8"/>
       <c r="E233" s="8"/>
       <c r="G233" s="8"/>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C234" s="8"/>
       <c r="E234" s="8"/>
       <c r="G234" s="8"/>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C235" s="8"/>
       <c r="E235" s="8"/>
       <c r="G235" s="8"/>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C236" s="8"/>
       <c r="E236" s="8"/>
       <c r="G236" s="8"/>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C237" s="8"/>
       <c r="E237" s="8"/>
       <c r="G237" s="8"/>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C238" s="8"/>
       <c r="E238" s="8"/>
       <c r="G238" s="8"/>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C239" s="8"/>
       <c r="E239" s="8"/>
       <c r="G239" s="8"/>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C240" s="8"/>
       <c r="E240" s="8"/>
       <c r="G240" s="8"/>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C241" s="8"/>
       <c r="E241" s="8"/>
       <c r="G241" s="8"/>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C242" s="8"/>
       <c r="E242" s="8"/>
       <c r="G242" s="8"/>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C243" s="8"/>
       <c r="E243" s="8"/>
       <c r="G243" s="8"/>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C244" s="8"/>
       <c r="E244" s="8"/>
       <c r="G244" s="8"/>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C245" s="8"/>
       <c r="E245" s="8"/>
       <c r="G245" s="8"/>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C246" s="8"/>
       <c r="E246" s="8"/>
       <c r="G246" s="8"/>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C247" s="8"/>
       <c r="E247" s="8"/>
       <c r="G247" s="8"/>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C248" s="8"/>
       <c r="E248" s="8"/>
       <c r="G248" s="8"/>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C249" s="8"/>
       <c r="E249" s="8"/>
       <c r="G249" s="8"/>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C250" s="8"/>
       <c r="E250" s="8"/>
       <c r="G250" s="8"/>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C251" s="8"/>
       <c r="E251" s="8"/>
       <c r="G251" s="8"/>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C252" s="8"/>
       <c r="E252" s="8"/>
       <c r="G252" s="8"/>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C253" s="8"/>
       <c r="E253" s="8"/>
       <c r="G253" s="8"/>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C254" s="8"/>
       <c r="E254" s="8"/>
       <c r="G254" s="8"/>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C255" s="8"/>
       <c r="E255" s="8"/>
       <c r="G255" s="8"/>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C256" s="8"/>
       <c r="E256" s="8"/>
       <c r="G256" s="8"/>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C257" s="8"/>
       <c r="E257" s="8"/>
       <c r="G257" s="8"/>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C258" s="8"/>
       <c r="E258" s="8"/>
       <c r="G258" s="8"/>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C259" s="8"/>
       <c r="E259" s="8"/>
       <c r="G259" s="8"/>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C260" s="8"/>
       <c r="E260" s="8"/>
       <c r="G260" s="8"/>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C261" s="8"/>
       <c r="E261" s="8"/>
       <c r="G261" s="8"/>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C262" s="8"/>
       <c r="E262" s="8"/>
       <c r="G262" s="8"/>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C263" s="8"/>
       <c r="E263" s="8"/>
       <c r="G263" s="8"/>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C264" s="8"/>
       <c r="E264" s="8"/>
       <c r="G264" s="8"/>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C265" s="8"/>
       <c r="E265" s="8"/>
       <c r="G265" s="8"/>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C266" s="8"/>
       <c r="E266" s="8"/>
       <c r="G266" s="8"/>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C267" s="8"/>
       <c r="E267" s="8"/>
       <c r="G267" s="8"/>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C268" s="8"/>
       <c r="E268" s="8"/>
       <c r="G268" s="8"/>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C269" s="8"/>
       <c r="E269" s="8"/>
       <c r="G269" s="8"/>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C270" s="8"/>
       <c r="E270" s="8"/>
       <c r="G270" s="8"/>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C271" s="8"/>
       <c r="E271" s="8"/>
       <c r="G271" s="8"/>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C272" s="8"/>
       <c r="E272" s="8"/>
       <c r="G272" s="8"/>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C273" s="8"/>
       <c r="E273" s="8"/>
       <c r="G273" s="8"/>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C274" s="8"/>
       <c r="E274" s="8"/>
       <c r="G274" s="8"/>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C275" s="8"/>
       <c r="E275" s="8"/>
       <c r="G275" s="8"/>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C276" s="8"/>
       <c r="E276" s="8"/>
       <c r="G276" s="8"/>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C277" s="8"/>
       <c r="E277" s="8"/>
       <c r="G277" s="8"/>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C278" s="8"/>
       <c r="E278" s="8"/>
       <c r="G278" s="8"/>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C279" s="8"/>
       <c r="E279" s="8"/>
       <c r="G279" s="8"/>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C280" s="8"/>
       <c r="E280" s="8"/>
       <c r="G280" s="8"/>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C281" s="8"/>
       <c r="E281" s="8"/>
       <c r="G281" s="8"/>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C282" s="8"/>
       <c r="E282" s="8"/>
       <c r="G282" s="8"/>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C283" s="8"/>
       <c r="E283" s="8"/>
       <c r="G283" s="8"/>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C284" s="8"/>
       <c r="E284" s="8"/>
       <c r="G284" s="8"/>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C285" s="8"/>
       <c r="E285" s="8"/>
       <c r="G285" s="8"/>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C286" s="8"/>
       <c r="E286" s="8"/>
       <c r="G286" s="8"/>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C287" s="8"/>
       <c r="E287" s="8"/>
       <c r="G287" s="8"/>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C288" s="8"/>
       <c r="E288" s="8"/>
       <c r="G288" s="8"/>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C289" s="8"/>
       <c r="E289" s="8"/>
       <c r="G289" s="8"/>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C290" s="8"/>
       <c r="E290" s="8"/>
       <c r="G290" s="8"/>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C291" s="8"/>
       <c r="E291" s="8"/>
       <c r="G291" s="8"/>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C292" s="8"/>
       <c r="E292" s="8"/>
       <c r="G292" s="8"/>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C293" s="8"/>
       <c r="E293" s="8"/>
       <c r="G293" s="8"/>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C294" s="8"/>
       <c r="E294" s="8"/>
       <c r="G294" s="8"/>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C295" s="8"/>
       <c r="E295" s="8"/>
       <c r="G295" s="8"/>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C296" s="8"/>
       <c r="E296" s="8"/>
       <c r="G296" s="8"/>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C297" s="8"/>
       <c r="E297" s="8"/>
       <c r="G297" s="8"/>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C298" s="8"/>
       <c r="E298" s="8"/>
       <c r="G298" s="8"/>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C299" s="8"/>
       <c r="E299" s="8"/>
       <c r="G299" s="8"/>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C300" s="8"/>
       <c r="E300" s="8"/>
       <c r="G300" s="8"/>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C301" s="8"/>
       <c r="E301" s="8"/>
       <c r="G301" s="8"/>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C302" s="8"/>
       <c r="E302" s="8"/>
       <c r="G302" s="8"/>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C303" s="8"/>
       <c r="E303" s="8"/>
       <c r="G303" s="8"/>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C304" s="8"/>
       <c r="E304" s="8"/>
       <c r="G304" s="8"/>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C305" s="8"/>
       <c r="E305" s="8"/>
       <c r="G305" s="8"/>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C306" s="8"/>
       <c r="E306" s="8"/>
       <c r="G306" s="8"/>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C307" s="8"/>
       <c r="E307" s="8"/>
       <c r="G307" s="8"/>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C308" s="8"/>
       <c r="E308" s="8"/>
       <c r="G308" s="8"/>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C309" s="8"/>
       <c r="E309" s="8"/>
       <c r="G309" s="8"/>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C310" s="8"/>
       <c r="E310" s="8"/>
       <c r="G310" s="8"/>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C311" s="8"/>
       <c r="E311" s="8"/>
       <c r="G311" s="8"/>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C312" s="8"/>
       <c r="E312" s="8"/>
       <c r="G312" s="8"/>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C313" s="8"/>
       <c r="E313" s="8"/>
       <c r="G313" s="8"/>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C314" s="8"/>
       <c r="E314" s="8"/>
       <c r="G314" s="8"/>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C315" s="8"/>
       <c r="E315" s="8"/>
       <c r="G315" s="8"/>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C316" s="8"/>
       <c r="E316" s="8"/>
       <c r="G316" s="8"/>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C317" s="8"/>
       <c r="E317" s="8"/>
       <c r="G317" s="8"/>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C318" s="8"/>
       <c r="E318" s="8"/>
       <c r="G318" s="8"/>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C319" s="8"/>
       <c r="E319" s="8"/>
       <c r="G319" s="8"/>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C320" s="8"/>
       <c r="E320" s="8"/>
       <c r="G320" s="8"/>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C321" s="8"/>
       <c r="E321" s="8"/>
       <c r="G321" s="8"/>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C322" s="8"/>
       <c r="E322" s="8"/>
       <c r="G322" s="8"/>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C323" s="8"/>
       <c r="E323" s="8"/>
       <c r="G323" s="8"/>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C324" s="8"/>
       <c r="E324" s="8"/>
       <c r="G324" s="8"/>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C325" s="8"/>
       <c r="E325" s="8"/>
       <c r="G325" s="8"/>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C326" s="8"/>
       <c r="E326" s="8"/>
       <c r="G326" s="8"/>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C327" s="8"/>
       <c r="E327" s="8"/>
       <c r="G327" s="8"/>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C328" s="8"/>
       <c r="E328" s="8"/>
       <c r="G328" s="8"/>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C329" s="8"/>
       <c r="E329" s="8"/>
       <c r="G329" s="8"/>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C330" s="8"/>
       <c r="E330" s="8"/>
       <c r="G330" s="8"/>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C331" s="8"/>
       <c r="E331" s="8"/>
       <c r="G331" s="8"/>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C332" s="8"/>
       <c r="E332" s="8"/>
       <c r="G332" s="8"/>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C333" s="8"/>
       <c r="E333" s="8"/>
       <c r="G333" s="8"/>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C334" s="8"/>
       <c r="E334" s="8"/>
       <c r="G334" s="8"/>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C335" s="8"/>
       <c r="E335" s="8"/>
       <c r="G335" s="8"/>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C336" s="8"/>
       <c r="E336" s="8"/>
       <c r="G336" s="8"/>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C337" s="8"/>
       <c r="E337" s="8"/>
       <c r="G337" s="8"/>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C338" s="8"/>
       <c r="E338" s="8"/>
       <c r="G338" s="8"/>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C339" s="8"/>
       <c r="E339" s="8"/>
       <c r="G339" s="8"/>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C340" s="8"/>
       <c r="E340" s="8"/>
       <c r="G340" s="8"/>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C341" s="8"/>
       <c r="E341" s="8"/>
       <c r="G341" s="8"/>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C342" s="8"/>
       <c r="E342" s="8"/>
       <c r="G342" s="8"/>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C343" s="8"/>
       <c r="E343" s="8"/>
       <c r="G343" s="8"/>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C344" s="8"/>
       <c r="E344" s="8"/>
       <c r="G344" s="8"/>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C345" s="8"/>
       <c r="E345" s="8"/>
       <c r="G345" s="8"/>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C346" s="8"/>
       <c r="E346" s="8"/>
       <c r="G346" s="8"/>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C347" s="8"/>
       <c r="E347" s="8"/>
       <c r="G347" s="8"/>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C348" s="8"/>
       <c r="E348" s="8"/>
       <c r="G348" s="8"/>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C349" s="8"/>
       <c r="E349" s="8"/>
       <c r="G349" s="8"/>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C350" s="8"/>
       <c r="E350" s="8"/>
       <c r="G350" s="8"/>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C351" s="8"/>
       <c r="E351" s="8"/>
       <c r="G351" s="8"/>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C352" s="8"/>
       <c r="E352" s="8"/>
       <c r="G352" s="8"/>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C353" s="8"/>
       <c r="E353" s="8"/>
       <c r="G353" s="8"/>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C354" s="8"/>
       <c r="E354" s="8"/>
       <c r="G354" s="8"/>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C355" s="8"/>
       <c r="E355" s="8"/>
       <c r="G355" s="8"/>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C356" s="8"/>
       <c r="E356" s="8"/>
       <c r="G356" s="8"/>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C357" s="8"/>
       <c r="E357" s="8"/>
       <c r="G357" s="8"/>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C358" s="8"/>
       <c r="E358" s="8"/>
       <c r="G358" s="8"/>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C359" s="8"/>
       <c r="E359" s="8"/>
       <c r="G359" s="8"/>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C360" s="8"/>
       <c r="E360" s="8"/>
       <c r="G360" s="8"/>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C361" s="8"/>
       <c r="E361" s="8"/>
       <c r="G361" s="8"/>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C362" s="8"/>
       <c r="E362" s="8"/>
       <c r="G362" s="8"/>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C363" s="8"/>
       <c r="E363" s="8"/>
       <c r="G363" s="8"/>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C364" s="8"/>
       <c r="E364" s="8"/>
       <c r="G364" s="8"/>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C365" s="8"/>
       <c r="E365" s="8"/>
       <c r="G365" s="8"/>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C366" s="8"/>
       <c r="E366" s="8"/>
       <c r="G366" s="8"/>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C367" s="8"/>
       <c r="E367" s="8"/>
       <c r="G367" s="8"/>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C368" s="8"/>
       <c r="E368" s="8"/>
       <c r="G368" s="8"/>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C369" s="8"/>
       <c r="E369" s="8"/>
       <c r="G369" s="8"/>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C370" s="8"/>
       <c r="E370" s="8"/>
       <c r="G370" s="8"/>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C371" s="8"/>
       <c r="E371" s="8"/>
       <c r="G371" s="8"/>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C372" s="8"/>
       <c r="E372" s="8"/>
       <c r="G372" s="8"/>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C373" s="8"/>
       <c r="E373" s="8"/>
       <c r="G373" s="8"/>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C374" s="8"/>
       <c r="E374" s="8"/>
       <c r="G374" s="8"/>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C375" s="8"/>
       <c r="E375" s="8"/>
       <c r="G375" s="8"/>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C376" s="8"/>
       <c r="E376" s="8"/>
       <c r="G376" s="8"/>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C377" s="8"/>
       <c r="E377" s="8"/>
       <c r="G377" s="8"/>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C378" s="8"/>
       <c r="E378" s="8"/>
       <c r="G378" s="8"/>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C379" s="8"/>
       <c r="E379" s="8"/>
       <c r="G379" s="8"/>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C380" s="8"/>
       <c r="E380" s="8"/>
       <c r="G380" s="8"/>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C381" s="8"/>
       <c r="E381" s="8"/>
       <c r="G381" s="8"/>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C382" s="8"/>
       <c r="E382" s="8"/>
       <c r="G382" s="8"/>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C383" s="8"/>
       <c r="E383" s="8"/>
       <c r="G383" s="8"/>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C384" s="8"/>
       <c r="E384" s="8"/>
       <c r="G384" s="8"/>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C385" s="8"/>
       <c r="E385" s="8"/>
       <c r="G385" s="8"/>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C386" s="8"/>
       <c r="E386" s="8"/>
       <c r="G386" s="8"/>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C387" s="8"/>
       <c r="E387" s="8"/>
       <c r="G387" s="8"/>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C388" s="8"/>
       <c r="E388" s="8"/>
       <c r="G388" s="8"/>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C389" s="8"/>
       <c r="E389" s="8"/>
       <c r="G389" s="8"/>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C390" s="8"/>
       <c r="E390" s="8"/>
       <c r="G390" s="8"/>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C391" s="8"/>
       <c r="E391" s="8"/>
       <c r="G391" s="8"/>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C392" s="8"/>
       <c r="E392" s="8"/>
       <c r="G392" s="8"/>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C393" s="8"/>
       <c r="E393" s="8"/>
       <c r="G393" s="8"/>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C394" s="8"/>
       <c r="E394" s="8"/>
       <c r="G394" s="8"/>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C395" s="8"/>
       <c r="E395" s="8"/>
       <c r="G395" s="8"/>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C396" s="8"/>
       <c r="E396" s="8"/>
       <c r="G396" s="8"/>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C397" s="8"/>
       <c r="E397" s="8"/>
       <c r="G397" s="8"/>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C398" s="8"/>
       <c r="E398" s="8"/>
       <c r="G398" s="8"/>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C399" s="8"/>
       <c r="E399" s="8"/>
       <c r="G399" s="8"/>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C400" s="8"/>
       <c r="E400" s="8"/>
       <c r="G400" s="8"/>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C401" s="8"/>
       <c r="E401" s="8"/>
       <c r="G401" s="8"/>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C402" s="8"/>
       <c r="E402" s="8"/>
       <c r="G402" s="8"/>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C403" s="8"/>
       <c r="E403" s="8"/>
       <c r="G403" s="8"/>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C404" s="8"/>
       <c r="E404" s="8"/>
       <c r="G404" s="8"/>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C405" s="8"/>
       <c r="E405" s="8"/>
       <c r="G405" s="8"/>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C406" s="8"/>
       <c r="E406" s="8"/>
       <c r="G406" s="8"/>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C407" s="8"/>
       <c r="E407" s="8"/>
       <c r="G407" s="8"/>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C408" s="8"/>
       <c r="E408" s="8"/>
       <c r="G408" s="8"/>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C409" s="8"/>
       <c r="E409" s="8"/>
       <c r="G409" s="8"/>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C410" s="8"/>
       <c r="E410" s="8"/>
       <c r="G410" s="8"/>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C411" s="8"/>
       <c r="E411" s="8"/>
       <c r="G411" s="8"/>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C412" s="8"/>
       <c r="E412" s="8"/>
       <c r="G412" s="8"/>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C413" s="8"/>
       <c r="E413" s="8"/>
       <c r="G413" s="8"/>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C414" s="8"/>
       <c r="E414" s="8"/>
       <c r="G414" s="8"/>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C415" s="8"/>
       <c r="E415" s="8"/>
       <c r="G415" s="8"/>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C416" s="8"/>
       <c r="E416" s="8"/>
       <c r="G416" s="8"/>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C417" s="8"/>
       <c r="E417" s="8"/>
       <c r="G417" s="8"/>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C418" s="8"/>
       <c r="E418" s="8"/>
       <c r="G418" s="8"/>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C419" s="8"/>
       <c r="E419" s="8"/>
       <c r="G419" s="8"/>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C420" s="8"/>
       <c r="E420" s="8"/>
       <c r="G420" s="8"/>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C421" s="8"/>
       <c r="E421" s="8"/>
       <c r="G421" s="8"/>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C422" s="8"/>
       <c r="E422" s="8"/>
       <c r="G422" s="8"/>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C423" s="8"/>
       <c r="E423" s="8"/>
       <c r="G423" s="8"/>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C424" s="8"/>
       <c r="E424" s="8"/>
       <c r="G424" s="8"/>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C425" s="8"/>
       <c r="E425" s="8"/>
       <c r="G425" s="8"/>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C426" s="8"/>
       <c r="E426" s="8"/>
       <c r="G426" s="8"/>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C427" s="8"/>
       <c r="E427" s="8"/>
       <c r="G427" s="8"/>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C428" s="8"/>
       <c r="E428" s="8"/>
       <c r="G428" s="8"/>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C429" s="8"/>
       <c r="E429" s="8"/>
       <c r="G429" s="8"/>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C430" s="8"/>
       <c r="E430" s="8"/>
       <c r="G430" s="8"/>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C431" s="8"/>
       <c r="E431" s="8"/>
       <c r="G431" s="8"/>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C432" s="8"/>
       <c r="E432" s="8"/>
       <c r="G432" s="8"/>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C433" s="8"/>
       <c r="E433" s="8"/>
       <c r="G433" s="8"/>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C434" s="8"/>
       <c r="E434" s="8"/>
       <c r="G434" s="8"/>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C435" s="8"/>
       <c r="E435" s="8"/>
       <c r="G435" s="8"/>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C436" s="8"/>
       <c r="E436" s="8"/>
       <c r="G436" s="8"/>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C437" s="8"/>
       <c r="E437" s="8"/>
       <c r="G437" s="8"/>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C438" s="8"/>
       <c r="E438" s="8"/>
       <c r="G438" s="8"/>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C439" s="8"/>
       <c r="E439" s="8"/>
       <c r="G439" s="8"/>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C440" s="8"/>
       <c r="E440" s="8"/>
       <c r="G440" s="8"/>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C441" s="8"/>
       <c r="E441" s="8"/>
       <c r="G441" s="8"/>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C442" s="8"/>
       <c r="E442" s="8"/>
       <c r="G442" s="8"/>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C443" s="8"/>
       <c r="E443" s="8"/>
       <c r="G443" s="8"/>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C444" s="8"/>
       <c r="E444" s="8"/>
       <c r="G444" s="8"/>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C445" s="8"/>
       <c r="E445" s="8"/>
       <c r="G445" s="8"/>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C446" s="8"/>
       <c r="E446" s="8"/>
       <c r="G446" s="8"/>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C447" s="8"/>
       <c r="E447" s="8"/>
       <c r="G447" s="8"/>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C448" s="8"/>
       <c r="E448" s="8"/>
       <c r="G448" s="8"/>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C449" s="8"/>
       <c r="E449" s="8"/>
       <c r="G449" s="8"/>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C450" s="8"/>
       <c r="E450" s="8"/>
       <c r="G450" s="8"/>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C451" s="8"/>
       <c r="E451" s="8"/>
       <c r="G451" s="8"/>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C452" s="8"/>
       <c r="E452" s="8"/>
       <c r="G452" s="8"/>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C453" s="8"/>
       <c r="E453" s="8"/>
       <c r="G453" s="8"/>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C454" s="8"/>
       <c r="E454" s="8"/>
       <c r="G454" s="8"/>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C455" s="8"/>
       <c r="E455" s="8"/>
       <c r="G455" s="8"/>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C456" s="8"/>
       <c r="E456" s="8"/>
       <c r="G456" s="8"/>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C457" s="8"/>
       <c r="E457" s="8"/>
       <c r="G457" s="8"/>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C458" s="8"/>
       <c r="E458" s="8"/>
       <c r="G458" s="8"/>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C459" s="8"/>
       <c r="E459" s="8"/>
       <c r="G459" s="8"/>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C460" s="8"/>
       <c r="E460" s="8"/>
       <c r="G460" s="8"/>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C461" s="8"/>
       <c r="E461" s="8"/>
       <c r="G461" s="8"/>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C462" s="8"/>
       <c r="E462" s="8"/>
       <c r="G462" s="8"/>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C463" s="8"/>
       <c r="E463" s="8"/>
       <c r="G463" s="8"/>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C464" s="8"/>
       <c r="E464" s="8"/>
       <c r="G464" s="8"/>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C465" s="8"/>
       <c r="E465" s="8"/>
       <c r="G465" s="8"/>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C466" s="8"/>
       <c r="E466" s="8"/>
       <c r="G466" s="8"/>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C467" s="8"/>
       <c r="E467" s="8"/>
       <c r="G467" s="8"/>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C468" s="8"/>
       <c r="E468" s="8"/>
       <c r="G468" s="8"/>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C469" s="8"/>
       <c r="E469" s="8"/>
       <c r="G469" s="8"/>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C470" s="8"/>
       <c r="E470" s="8"/>
       <c r="G470" s="8"/>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C471" s="8"/>
       <c r="E471" s="8"/>
       <c r="G471" s="8"/>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C472" s="8"/>
       <c r="E472" s="8"/>
       <c r="G472" s="8"/>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C473" s="8"/>
       <c r="E473" s="8"/>
       <c r="G473" s="8"/>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C474" s="8"/>
       <c r="E474" s="8"/>
       <c r="G474" s="8"/>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C475" s="8"/>
       <c r="E475" s="8"/>
       <c r="G475" s="8"/>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C476" s="8"/>
       <c r="E476" s="8"/>
       <c r="G476" s="8"/>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C477" s="8"/>
       <c r="E477" s="8"/>
       <c r="G477" s="8"/>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C478" s="8"/>
       <c r="E478" s="8"/>
       <c r="G478" s="8"/>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C479" s="8"/>
       <c r="E479" s="8"/>
       <c r="G479" s="8"/>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C480" s="8"/>
       <c r="E480" s="8"/>
       <c r="G480" s="8"/>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C481" s="8"/>
       <c r="E481" s="8"/>
       <c r="G481" s="8"/>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C482" s="8"/>
       <c r="E482" s="8"/>
       <c r="G482" s="8"/>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C483" s="8"/>
       <c r="E483" s="8"/>
       <c r="G483" s="8"/>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C484" s="8"/>
       <c r="E484" s="8"/>
       <c r="G484" s="8"/>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C485" s="8"/>
       <c r="E485" s="8"/>
       <c r="G485" s="8"/>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C486" s="8"/>
       <c r="E486" s="8"/>
       <c r="G486" s="8"/>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C487" s="8"/>
       <c r="E487" s="8"/>
       <c r="G487" s="8"/>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C488" s="8"/>
       <c r="E488" s="8"/>
       <c r="G488" s="8"/>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C489" s="8"/>
       <c r="E489" s="8"/>
       <c r="G489" s="8"/>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C490" s="8"/>
       <c r="E490" s="8"/>
       <c r="G490" s="8"/>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C491" s="8"/>
       <c r="E491" s="8"/>
       <c r="G491" s="8"/>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C492" s="8"/>
       <c r="E492" s="8"/>
       <c r="G492" s="8"/>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C493" s="8"/>
       <c r="E493" s="8"/>
       <c r="G493" s="8"/>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C494" s="8"/>
       <c r="E494" s="8"/>
       <c r="G494" s="8"/>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C495" s="8"/>
       <c r="E495" s="8"/>
       <c r="G495" s="8"/>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C496" s="8"/>
       <c r="E496" s="8"/>
       <c r="G496" s="8"/>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C497" s="8"/>
       <c r="E497" s="8"/>
       <c r="G497" s="8"/>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C498" s="8"/>
       <c r="E498" s="8"/>
       <c r="G498" s="8"/>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C499" s="8"/>
       <c r="E499" s="8"/>
       <c r="G499" s="8"/>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C500" s="8"/>
       <c r="E500" s="8"/>
       <c r="G500" s="8"/>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C501" s="8"/>
       <c r="E501" s="8"/>
       <c r="G501" s="8"/>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C502" s="8"/>
       <c r="E502" s="8"/>
       <c r="G502" s="8"/>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C503" s="8"/>
       <c r="E503" s="8"/>
       <c r="G503" s="8"/>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C504" s="8"/>
       <c r="E504" s="8"/>
       <c r="G504" s="8"/>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C505" s="8"/>
       <c r="E505" s="8"/>
       <c r="G505" s="8"/>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C506" s="8"/>
       <c r="E506" s="8"/>
       <c r="G506" s="8"/>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C507" s="8"/>
       <c r="E507" s="8"/>
       <c r="G507" s="8"/>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C508" s="8"/>
       <c r="E508" s="8"/>
       <c r="G508" s="8"/>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C509" s="8"/>
       <c r="E509" s="8"/>
       <c r="G509" s="8"/>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C510" s="8"/>
       <c r="E510" s="8"/>
       <c r="G510" s="8"/>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C511" s="8"/>
       <c r="E511" s="8"/>
       <c r="G511" s="8"/>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C512" s="8"/>
       <c r="E512" s="8"/>
       <c r="G512" s="8"/>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C513" s="8"/>
       <c r="E513" s="8"/>
       <c r="G513" s="8"/>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C514" s="8"/>
       <c r="E514" s="8"/>
       <c r="G514" s="8"/>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C515" s="8"/>
       <c r="E515" s="8"/>
       <c r="G515" s="8"/>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C516" s="8"/>
       <c r="E516" s="8"/>
       <c r="G516" s="8"/>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C517" s="8"/>
       <c r="E517" s="8"/>
       <c r="G517" s="8"/>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C518" s="8"/>
       <c r="E518" s="8"/>
       <c r="G518" s="8"/>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C519" s="8"/>
       <c r="E519" s="8"/>
       <c r="G519" s="8"/>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C520" s="8"/>
       <c r="E520" s="8"/>
       <c r="G520" s="8"/>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C521" s="8"/>
       <c r="E521" s="8"/>
       <c r="G521" s="8"/>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C522" s="8"/>
       <c r="E522" s="8"/>
       <c r="G522" s="8"/>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C523" s="8"/>
       <c r="E523" s="8"/>
       <c r="G523" s="8"/>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C524" s="8"/>
       <c r="E524" s="8"/>
       <c r="G524" s="8"/>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C525" s="8"/>
       <c r="E525" s="8"/>
       <c r="G525" s="8"/>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C526" s="8"/>
       <c r="E526" s="8"/>
       <c r="G526" s="8"/>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C527" s="8"/>
       <c r="E527" s="8"/>
       <c r="G527" s="8"/>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C528" s="8"/>
       <c r="E528" s="8"/>
       <c r="G528" s="8"/>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C529" s="8"/>
       <c r="E529" s="8"/>
       <c r="G529" s="8"/>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C530" s="8"/>
       <c r="E530" s="8"/>
       <c r="G530" s="8"/>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C531" s="8"/>
       <c r="E531" s="8"/>
       <c r="G531" s="8"/>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C532" s="8"/>
       <c r="E532" s="8"/>
       <c r="G532" s="8"/>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C533" s="8"/>
       <c r="E533" s="8"/>
       <c r="G533" s="8"/>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C534" s="8"/>
       <c r="E534" s="8"/>
       <c r="G534" s="8"/>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C535" s="8"/>
       <c r="E535" s="8"/>
       <c r="G535" s="8"/>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C536" s="8"/>
       <c r="E536" s="8"/>
       <c r="G536" s="8"/>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C537" s="8"/>
       <c r="E537" s="8"/>
       <c r="G537" s="8"/>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C538" s="8"/>
       <c r="E538" s="8"/>
       <c r="G538" s="8"/>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C539" s="8"/>
       <c r="E539" s="8"/>
       <c r="G539" s="8"/>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C540" s="8"/>
       <c r="E540" s="8"/>
       <c r="G540" s="8"/>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C541" s="8"/>
       <c r="E541" s="8"/>
       <c r="G541" s="8"/>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C542" s="8"/>
       <c r="E542" s="8"/>
       <c r="G542" s="8"/>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C543" s="8"/>
       <c r="E543" s="8"/>
       <c r="G543" s="8"/>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C544" s="8"/>
       <c r="E544" s="8"/>
       <c r="G544" s="8"/>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C545" s="8"/>
       <c r="E545" s="8"/>
       <c r="G545" s="8"/>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C546" s="8"/>
       <c r="E546" s="8"/>
       <c r="G546" s="8"/>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C547" s="8"/>
       <c r="E547" s="8"/>
       <c r="G547" s="8"/>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C548" s="8"/>
       <c r="E548" s="8"/>
       <c r="G548" s="8"/>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C549" s="8"/>
       <c r="E549" s="8"/>
       <c r="G549" s="8"/>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C550" s="8"/>
       <c r="E550" s="8"/>
       <c r="G550" s="8"/>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C551" s="8"/>
       <c r="E551" s="8"/>
       <c r="G551" s="8"/>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C552" s="8"/>
       <c r="E552" s="8"/>
       <c r="G552" s="8"/>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C553" s="8"/>
       <c r="E553" s="8"/>
       <c r="G553" s="8"/>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C554" s="8"/>
       <c r="E554" s="8"/>
       <c r="G554" s="8"/>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C555" s="8"/>
       <c r="E555" s="8"/>
       <c r="G555" s="8"/>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C556" s="8"/>
       <c r="E556" s="8"/>
       <c r="G556" s="8"/>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C557" s="8"/>
       <c r="E557" s="8"/>
       <c r="G557" s="8"/>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C558" s="8"/>
       <c r="E558" s="8"/>
       <c r="G558" s="8"/>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C559" s="8"/>
       <c r="E559" s="8"/>
       <c r="G559" s="8"/>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C560" s="8"/>
       <c r="E560" s="8"/>
       <c r="G560" s="8"/>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C561" s="8"/>
       <c r="E561" s="8"/>
       <c r="G561" s="8"/>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C562" s="8"/>
       <c r="E562" s="8"/>
       <c r="G562" s="8"/>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C563" s="8"/>
       <c r="E563" s="8"/>
       <c r="G563" s="8"/>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C564" s="8"/>
       <c r="E564" s="8"/>
       <c r="G564" s="8"/>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C565" s="8"/>
       <c r="E565" s="8"/>
       <c r="G565" s="8"/>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C566" s="8"/>
       <c r="E566" s="8"/>
       <c r="G566" s="8"/>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C567" s="8"/>
       <c r="E567" s="8"/>
       <c r="G567" s="8"/>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C568" s="8"/>
       <c r="E568" s="8"/>
       <c r="G568" s="8"/>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C569" s="8"/>
       <c r="E569" s="8"/>
       <c r="G569" s="8"/>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C570" s="8"/>
       <c r="E570" s="8"/>
       <c r="G570" s="8"/>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C571" s="8"/>
       <c r="E571" s="8"/>
       <c r="G571" s="8"/>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C572" s="8"/>
       <c r="E572" s="8"/>
       <c r="G572" s="8"/>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C573" s="8"/>
       <c r="E573" s="8"/>
       <c r="G573" s="8"/>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C574" s="8"/>
       <c r="E574" s="8"/>
       <c r="G574" s="8"/>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C575" s="8"/>
       <c r="E575" s="8"/>
       <c r="G575" s="8"/>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C576" s="8"/>
       <c r="E576" s="8"/>
       <c r="G576" s="8"/>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C577" s="8"/>
       <c r="E577" s="8"/>
       <c r="G577" s="8"/>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C578" s="8"/>
       <c r="E578" s="8"/>
       <c r="G578" s="8"/>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C579" s="8"/>
       <c r="E579" s="8"/>
       <c r="G579" s="8"/>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C580" s="8"/>
       <c r="E580" s="8"/>
       <c r="G580" s="8"/>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C581" s="8"/>
       <c r="E581" s="8"/>
       <c r="G581" s="8"/>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C582" s="8"/>
       <c r="E582" s="8"/>
       <c r="G582" s="8"/>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C583" s="8"/>
       <c r="E583" s="8"/>
       <c r="G583" s="8"/>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C584" s="8"/>
       <c r="E584" s="8"/>
       <c r="G584" s="8"/>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C585" s="8"/>
       <c r="E585" s="8"/>
       <c r="G585" s="8"/>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C586" s="8"/>
       <c r="E586" s="8"/>
       <c r="G586" s="8"/>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C587" s="8"/>
       <c r="E587" s="8"/>
       <c r="G587" s="8"/>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C588" s="8"/>
       <c r="E588" s="8"/>
       <c r="G588" s="8"/>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C589" s="8"/>
       <c r="E589" s="8"/>
       <c r="G589" s="8"/>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C590" s="8"/>
       <c r="E590" s="8"/>
       <c r="G590" s="8"/>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C591" s="8"/>
       <c r="E591" s="8"/>
       <c r="G591" s="8"/>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C592" s="8"/>
       <c r="E592" s="8"/>
       <c r="G592" s="8"/>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C593" s="8"/>
       <c r="E593" s="8"/>
       <c r="G593" s="8"/>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C594" s="8"/>
       <c r="E594" s="8"/>
       <c r="G594" s="8"/>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C595" s="8"/>
       <c r="E595" s="8"/>
       <c r="G595" s="8"/>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C596" s="8"/>
       <c r="E596" s="8"/>
       <c r="G596" s="8"/>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C597" s="8"/>
       <c r="E597" s="8"/>
       <c r="G597" s="8"/>
@@ -3735,7 +3793,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D597 F2:F597 H2:H597">
+  <conditionalFormatting sqref="F2:F597 H2:H597 D2:D597">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -3744,12 +3802,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E597 C2:C597 G2:G597">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E597 C2:C597 G2:G597" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -72,6 +72,9 @@
     <t xml:space="preserve">SJD; 2/28/18</t>
   </si>
   <si>
+    <t xml:space="preserve">MTD; 3/27/18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that I am not signed-in when I do click on the sign-in link then I expect to be taken to the Signin page, with a means to enter a player name.</t>
   </si>
   <si>
@@ -108,7 +111,7 @@
     <t xml:space="preserve">Given that I'm waiting for a game when another player selects a game with me then the system will automatically send me to the Game View from the Home page.  NOTE: the `home.ftl` HTML includes a `&lt;meta&gt;` tag that tells the browser to refresh the game every 5 seconds; thus you need to update the `GetHomeRoute` controller to handle the situation when a player is assigned a game.</t>
   </si>
   <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a piece to a white space then the piece should not be droppable.</t>
+    <t xml:space="preserve">Given a valid, initial game board when I drag a red piece to a white space then the piece should not be droppable.</t>
   </si>
   <si>
     <t xml:space="preserve">Given a valid, initial game board when I drag a piece to an occupied space then the piece should not be droppable.</t>
@@ -120,37 +123,94 @@
     <t xml:space="preserve">Given a valid, initial game board when I view the board in the browser then my pieces are oriented on the bottom of the board grid just like I would see the board if I were playing in the physical world.</t>
   </si>
   <si>
-    <t xml:space="preserve">Player Registration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Player Sign-out</t>
   </si>
   <si>
-    <t xml:space="preserve">Game Requests</t>
+    <t xml:space="preserve">Given that I am currently signed in when I see the Home page then I must see a means to sign out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am signed in when I click on the sign out button then I expect to be signed out and taken back to the Home page.</t>
   </si>
   <si>
     <t xml:space="preserve">Matchmaking</t>
   </si>
   <si>
+    <t xml:space="preserve">Given that I am on the home page when I look at a player who is not in a game then I see some indicator showing that they are not in a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am on the home page when I look at a player who is in a game then I see some indicator showing that they are in a game (so I can't challenge them).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Player Turns</t>
   </si>
   <si>
+    <t xml:space="preserve">Given that I am a Player in a game when I make a move then it would be the opposing Player's turn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valid Moves</t>
   </si>
   <si>
+    <t xml:space="preserve">Given that I am in a game and it's my turn, when I make a valid move then the move should complete without any errors or warning messages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am in a game and it's my turn, when I make an invalid move, then the move should not complete and I should see an error saying I tried to make an invalid move.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTD; 3/27/18; Moving a piece to a valid location, then moving it to any other location, causes a NullPointerException.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jumps</t>
   </si>
   <si>
+    <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there is an opponents piece I can capture then I am able to make a single jump move and take that piece off the board and advance my piece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there are 2 or more opponents pieces that I can capture then I am able to make a multiple jump move and move those pieces off the board and advance my piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when I have multiple jumps that I can take then I am able to choose which jump I can make</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forced Moves</t>
   </si>
   <si>
+    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a jump move is possible then I have to make the full jump move in order to advance the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a multiple jump move is possible then I must complete the entirety of the multiple jump move</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am in a game, when it is my turn and more than one jump moves are possible, then I am forced to choose one of them to fully jump through.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Game Over</t>
   </si>
   <si>
+    <t xml:space="preserve">Given that I am a Player in a game when I win/lose the game then I expect to redirected back to the Home Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and I am unable to  make a move then I will lose the game and be redirected to the Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game when all my pieces have been eliminated from the board then I will lose the game and be redirected to the Homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game, when my opponent loses the game, then I will win the game and be redirected to the home page.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forfeiting</t>
   </si>
   <si>
-    <t xml:space="preserve">Forfeit Navigation</t>
+    <t xml:space="preserve">Given that I am a Player when I am in a game then I expect to be able to forfeit the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game when I quit the application then I expect to forfeit the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player when I forfeit a game then I expect to be redirected to the home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game, when my opponent forfeits the game then I will win the game and be redirected to the home page.</t>
   </si>
   <si>
     <t xml:space="preserve">King Creation</t>
@@ -500,12 +560,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C12" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="topRight" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -547,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -559,112 +619,138 @@
         <v>14</v>
       </c>
       <c r="E2" s="8"/>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="8"/>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="8"/>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="8"/>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="8"/>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="8"/>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="8"/>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="8"/>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
@@ -673,213 +759,357 @@
       <c r="E11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="93.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="73.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="8"/>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="8"/>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="8"/>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="8"/>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="8"/>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="11"/>
+    <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>32</v>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C19" s="8"/>
       <c r="E19" s="8"/>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>34</v>
+    <row r="20" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
+    <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="8"/>
       <c r="E23" s="8"/>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>39</v>
+    <row r="25" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>40</v>
+    <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C27" s="8"/>
       <c r="E27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>42</v>
+    <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C28" s="8"/>
       <c r="E28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>43</v>
+    <row r="29" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="8"/>
       <c r="E29" s="8"/>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="8"/>
       <c r="E30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>45</v>
+    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="8"/>
       <c r="E31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>46</v>
+    <row r="32" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="8"/>
       <c r="E32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>47</v>
+    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C33" s="8"/>
       <c r="E33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C34" s="8"/>
       <c r="E34" s="8"/>
       <c r="G34" s="8"/>
     </row>
+    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="C2:C597 E2:E597 G2:G597">
+  <conditionalFormatting sqref="C38:C607 E38:E607 G2:G607 C2:C37 E2:E37">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Pass"</formula>
     </cfRule>
@@ -887,7 +1117,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F597 H2:H597 D2:D597">
+  <conditionalFormatting sqref="F38:F607 H38:H607 D2:D607 F24:F37 H2:H37 F11">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -895,8 +1125,176 @@
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F2),E2="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F2),E2="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F3),E3="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F3),E3="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F4),E4="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F4),E4="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F5),E5="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F5),E5="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F6),E6="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F6),E6="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F7),E7="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F7),E7="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F8),E8="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F8),E8="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F9),E9="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F9),E9="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F10),E10="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F10),E10="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F12),E12="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F12),E12="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F13),E13="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F13),E13="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F14),E14="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F14),E14="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F15),E15="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F15),E15="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F16),E16="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F16),E16="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F19),E19="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F19),E19="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F20),E20="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F20),E20="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F17),E17="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F17),E17="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F18),E18="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F18),E18="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F21),E21="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F21),E21="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F22),E22="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F22),E22="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F23),E23="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F23),E23="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C34 E2:E34 G2:G34" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C44 E2:E44 G2:G44" type="list">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">Team Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Your team name as "term-swen-261-sec-letter name", e.g. 2171-swen-261-10-a Speedy Racers</t>
+    <t xml:space="preserve">2175-swen-261-13-b Checker Masters</t>
   </si>
   <si>
     <t xml:space="preserve">Testing Team Name</t>
@@ -84,7 +84,8 @@
     <t xml:space="preserve">Given that I am on the Signin page when I enter a name that contains one or more characters that are not alphanumeric or spaces and click the Sign-in button then I expect the system to reject this name and return the Signin form.</t>
   </si>
   <si>
-    <t xml:space="preserve">SJD; 2/28/18; takes non-alphanumerical characters; SJD; 2/28/18</t>
+    <t xml:space="preserve">SJD; 2/28/18; takes non-alphanumerical characters;
+SJD; 2/28/18; Resolved</t>
   </si>
   <si>
     <t xml:space="preserve">Given that someone else with my name has signed-in when I enter my name in the sign-in form then I expect the system to reject my sign-in and return the sign-in form for me to try a different name.</t>
@@ -108,6 +109,12 @@
     <t xml:space="preserve">Given that the player I selected is already in a game when I select that player then the system will return me to the Home page with an error message.</t>
   </si>
   <si>
+    <t xml:space="preserve">MTD; 4/4/18; N/A for the future as now you can only click on players if they are not in a game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that I'm waiting for a game when another player selects a game with me then the system will automatically send me to the Game View from the Home page.  NOTE: the `home.ftl` HTML includes a `&lt;meta&gt;` tag that tells the browser to refresh the game every 5 seconds; thus you need to update the `GetHomeRoute` controller to handle the situation when a player is assigned a game.</t>
   </si>
   <si>
@@ -156,7 +163,8 @@
     <t xml:space="preserve">Given that I am in a game and it's my turn, when I make an invalid move, then the move should not complete and I should see an error saying I tried to make an invalid move.</t>
   </si>
   <si>
-    <t xml:space="preserve">MTD; 3/27/18; Moving a piece to a valid location, then moving it to any other location, causes a NullPointerException.</t>
+    <t xml:space="preserve">MTD; 3/27/18; Moving a piece to a valid location, then moving it to any other location, causes a NullPointerException.
+MTD; 4/4/18; Resolved</t>
   </si>
   <si>
     <t xml:space="preserve">Jumps</t>
@@ -165,73 +173,112 @@
     <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there is an opponents piece I can capture then I am able to make a single jump move and take that piece off the board and advance my piece.</t>
   </si>
   <si>
+    <t xml:space="preserve">MTD; 4/4/18; When taking a jump move and undoing it, you can’t make the move anymore (the piece you jumped was removed from the turn’s board)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there are 2 or more opponents pieces that I can capture then I am able to make a multiple jump move and move those pieces off the board and advance my piece</t>
   </si>
   <si>
+    <t xml:space="preserve">MTD; 4/4/18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when I have multiple jumps that I can take then I am able to choose which jump I can make</t>
   </si>
   <si>
+    <t xml:space="preserve">Game Over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game when I win/lose the game then I expect to redirected back to the Home Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and I am unable to  make a move then I will lose the game and be redirected to the Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game when all my pieces have been eliminated from the board then I will lose the game and be redirected to the Homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game, when my opponent loses the game, then I will win the game and be redirected to the home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfeiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player when I am in a game then I expect to be able to forfeit the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game when I quit the application then I expect to forfeit the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player when I forfeit a game then I expect to be redirected to the home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player in a game, when my opponent forfeits the game then I will win the game and be redirected to the home page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTD; 4/4/18; 500 error given</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forced Moves</t>
   </si>
   <si>
     <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a jump move is possible then I have to make the full jump move in order to advance the game</t>
   </si>
   <si>
+    <t xml:space="preserve">Only test the stories above this one. This story and below are not yet implemented</t>
+  </si>
+  <si>
     <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a multiple jump move is possible then I must complete the entirety of the multiple jump move</t>
   </si>
   <si>
     <t xml:space="preserve">Given that I am in a game, when it is my turn and more than one jump moves are possible, then I am forced to choose one of them to fully jump through.</t>
   </si>
   <si>
-    <t xml:space="preserve">Game Over</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I win/lose the game then I expect to redirected back to the Home Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and I am unable to  make a move then I will lose the game and be redirected to the Home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when all my pieces have been eliminated from the board then I will lose the game and be redirected to the Homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game, when my opponent loses the game, then I will win the game and be redirected to the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfeiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player when I am in a game then I expect to be able to forfeit the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I quit the application then I expect to forfeit the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player when I forfeit a game then I expect to be redirected to the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game, when my opponent forfeits the game then I will win the game and be redirected to the home page.</t>
-  </si>
-  <si>
     <t xml:space="preserve">King Creation</t>
   </si>
   <si>
+    <t xml:space="preserve">Given that I am a Player in a game when one of my pieces makes it to the row furthest from me then that piece will become a King piece.</t>
+  </si>
+  <si>
     <t xml:space="preserve">King Movement</t>
   </si>
   <si>
+    <t xml:space="preserve">Given that I am a Player in a game when I have a King piece then it is able to move both forward and backward diagonally.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a player in a game when I have a King piece and a multi jump move is possible then that move can be any combination of forward and backward jumps.</t>
+  </si>
+  <si>
     <t xml:space="preserve">King Capturing</t>
   </si>
   <si>
+    <t xml:space="preserve">Given I have a King when I jump a piece then I expect it to be removed properly.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Storing Replays</t>
   </si>
   <si>
+    <t xml:space="preserve">Given I am a Player when I complete a game then I expect my game to be stored as a replay for later viewing.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Listing Replays</t>
   </si>
   <si>
+    <t xml:space="preserve">Given I am a Player when I am on the home page then I expect to see a list of my past games as replays.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viewing Replays</t>
   </si>
   <si>
-    <t xml:space="preserve">AI Game Request</t>
+    <t xml:space="preserve">Given I am a Player with replays when I see the list of replays then I expect to see a way to view the replay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I am a Player with replays when I click to view a reply then I expect to be taken to a replay view of the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given that I am a Player with replays when I view a replay then I am able to view each move in the replay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player Help</t>
   </si>
 </sst>
 </file>
@@ -510,7 +557,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,12 +607,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="E21" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topRight" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,11 +620,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="60"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="60"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="46.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="60"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="46.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="60"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="46.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="10.89"/>
   </cols>
   <sheetData>
@@ -747,7 +794,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>26</v>
@@ -757,12 +804,18 @@
         <v>14</v>
       </c>
       <c r="E11" s="8"/>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="8"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="73.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
@@ -777,7 +830,7 @@
     <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
@@ -792,7 +845,7 @@
     <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
@@ -807,7 +860,7 @@
     <row r="15" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="s">
@@ -822,7 +875,7 @@
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="3" t="s">
@@ -834,14 +887,17 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="8"/>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="3" t="s">
         <v>15</v>
@@ -849,11 +905,14 @@
       <c r="G17" s="8"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="8"/>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="3" t="s">
         <v>15</v>
@@ -861,255 +920,438 @@
       <c r="G18" s="8"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="8"/>
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="8"/>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="8"/>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="8"/>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8"/>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="8"/>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E24" s="8"/>
+      <c r="F24" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C25" s="8"/>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E25" s="8"/>
+      <c r="F25" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C26" s="8"/>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E26" s="8"/>
+      <c r="F26" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C27" s="8"/>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="8"/>
+      <c r="F27" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="E28" s="8"/>
       <c r="G28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C29" s="8"/>
+      <c r="D29" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E29" s="8"/>
+      <c r="F29" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C30" s="8"/>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E30" s="8"/>
+      <c r="F30" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C31" s="8"/>
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E31" s="8"/>
+      <c r="F31" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C32" s="8"/>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E32" s="8"/>
+      <c r="F32" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C33" s="8"/>
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E33" s="8"/>
+      <c r="F33" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C34" s="8"/>
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E34" s="8"/>
+      <c r="F34" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C35" s="8"/>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E35" s="8"/>
+      <c r="F35" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G35" s="8"/>
-    </row>
-    <row r="36" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C36" s="8"/>
+      <c r="D36" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E36" s="8"/>
+      <c r="F36" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C37" s="8"/>
+      <c r="D37" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E37" s="8"/>
+      <c r="F37" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C38" s="8"/>
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E38" s="8"/>
+      <c r="F38" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C39" s="8"/>
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E39" s="8"/>
+      <c r="F39" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>64</v>
+    <row r="40" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="8"/>
+      <c r="D41" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E41" s="8"/>
+      <c r="F41" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C42" s="8"/>
+      <c r="D42" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E42" s="8"/>
+      <c r="F42" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C43" s="8"/>
+      <c r="D43" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E43" s="8"/>
+      <c r="F43" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C44" s="8"/>
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E44" s="8"/>
+      <c r="F44" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G44" s="8"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="8"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C38:C607 E38:E607 G2:G607 C2:C37 E2:E37">
+  <conditionalFormatting sqref="E34:E610 G12:G610 C27:C610 E2:E10 G2:G10 C2:C10 E27:E33 C12:C26 E12:E26">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Pass"</formula>
     </cfRule>
@@ -1117,7 +1359,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F607 H38:H607 D2:D607 F24:F37 H2:H37 F11">
+  <conditionalFormatting sqref="H12:H610 D27:D610 H2:H10 D2:D10 F24 F41:F610 D12:D26 F27:F38">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
@@ -1293,8 +1535,48 @@
       <formula>AND(ISBLANK(F23),E23="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G11 C11 E11">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11 H11 F11">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(D11),C11="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(D11),C11="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F25),E25="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F25),E25="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F26),E26="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F26),E26="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F40">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(ISBLANK(F39),E39="Pass")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(ISBLANK(F39),E39="Fail")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C44 E2:E44 G2:G44" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C47 E2:E47 G2:G47" type="list">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -215,7 +215,8 @@
     <t xml:space="preserve">Given that I am a Player in a game, when my opponent forfeits the game then I will win the game and be redirected to the home page.</t>
   </si>
   <si>
-    <t xml:space="preserve">MTD; 4/4/18; 500 error given</t>
+    <t xml:space="preserve">MTD; 4/4/18; 500 error given
+MTD; 4/5/18; Resolved</t>
   </si>
   <si>
     <t xml:space="preserve">Forced Moves</t>
@@ -609,10 +610,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="E21" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
-      <selection pane="topRight" activeCell="H35" activeCellId="0" sqref="H35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C22" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topRight" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3" t="s">
         <v>61</v>
       </c>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -173,7 +173,8 @@
     <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there is an opponents piece I can capture then I am able to make a single jump move and take that piece off the board and advance my piece.</t>
   </si>
   <si>
-    <t xml:space="preserve">MTD; 4/4/18; When taking a jump move and undoing it, you can’t make the move anymore (the piece you jumped was removed from the turn’s board)</t>
+    <t xml:space="preserve">MTD; 4/4/18; When taking a jump move and undoing it, you can’t make the move anymore (the piece you jumped was removed from the turn’s board)
+MTD; 4/5/18; Resolved</t>
   </si>
   <si>
     <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there are 2 or more opponents pieces that I can capture then I am able to make a multiple jump move and move those pieces off the board and advance my piece</t>
@@ -610,10 +611,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C22" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="topRight" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C14" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topRight" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1000,7 +1001,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxk2090\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Test Plan" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,276 +25,294 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
-  <si>
-    <t xml:space="preserve">Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter your team name as specified in the cell below. When doing cross-team and Freshman Seminar acceptance testing, enter the name for the testing group.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Enter your team name as specified in the cell below. When doing cross-team and Freshman Seminar acceptance testing, enter the name for the testing group.
 Fill-in the Test Plan worksheet with all the remaining User Stories in your Product Backlog. As your user stories are refined, add the acceptance criteria for each user story. Use a separate worksheet to provide any specific test case data that the tester needs to use.
 As tests are performed in each sprint, indicate Pass/Fail. The tester should add initials and a date in the comments column. If the test failed, the tester is required to add additional information about the failure. The status cell will color code based on the test results. The comments cell will color code when a test result exists but no information is entered.
 Save this test plan with a name formatted as "term-swen-261-sec-letter name", e.g. 2171-swen-261-10-a Speedy Racers.xslx.
 Submit this file per the instructions specified for the sprint submissions, cross-team testing, and Freshman Seminar testing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Team Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2175-swen-261-13-b Checker Masters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Team Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fill in when doing cross-team or Freshman Seminar testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criterion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester initials; date; comments (required if test failed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Player I want to sign-in so that I can play a game of checkers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I have not yet signed in when I see the Home page then I must see a means to sign-in. (such as a link or button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJD; 2/28/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 3/27/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am not signed-in when I do click on the sign-in link then I expect to be taken to the Signin page, with a means to enter a player name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that no one else is using my name when I enter my name containing only alphanumeric characters or spaces in the sign-in form and click the Sign-in button then I expect the system to reserve my name and navigate back to the Home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am on the Signin page when I enter a name that contains one or more characters that are not alphanumeric or spaces and click the Sign-in button then I expect the system to reject this name and return the Signin form.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJD; 2/28/18; takes non-alphanumerical characters;
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>2175-swen-261-13-b Checker Masters</t>
+  </si>
+  <si>
+    <t>Testing Team Name</t>
+  </si>
+  <si>
+    <t>fill in when doing cross-team or Freshman Seminar testing</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Acceptance Criterion</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Tester initials; date; comments (required if test failed)</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>As a Player I want to sign-in so that I can play a game of checkers.</t>
+  </si>
+  <si>
+    <t>Given that I have not yet signed in when I see the Home page then I must see a means to sign-in. (such as a link or button)</t>
+  </si>
+  <si>
+    <t>SJD; 2/28/18</t>
+  </si>
+  <si>
+    <t>MTD; 3/27/18</t>
+  </si>
+  <si>
+    <t>Given that I am not signed-in when I do click on the sign-in link then I expect to be taken to the Signin page, with a means to enter a player name.</t>
+  </si>
+  <si>
+    <t>Given that no one else is using my name when I enter my name containing only alphanumeric characters or spaces in the sign-in form and click the Sign-in button then I expect the system to reserve my name and navigate back to the Home page.</t>
+  </si>
+  <si>
+    <t>SJD; 2/28/18; takes non-alphanumerical characters;
 SJD; 2/28/18; Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Given that someone else with my name has signed-in when I enter my name in the sign-in form then I expect the system to reject my sign-in and return the sign-in form for me to try a different name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am signed-in when I navigate to the Home page then I expect to see a list of all other signed-in players.  (NOTE: in the next story you will use this list to pick opponents for checkers games.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am not signed-in when I navigate to the Home page then I expect to see a message of how many players are signed-in but not a list of them (for privacy reasons).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Player I want to start a game so that I can play checkers with an opponent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I'm signed in when I view the Home page then I can start a game by selecting a player listed on the Home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that the player I selected isn't yet in a game when I select that player then the system will begin a checkers game and assign me as the starting (Red) player and my opponent as the White player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that the player I selected is already in a game when I select that player then the system will return me to the Home page with an error message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/4/18; N/A for the future as now you can only click on players if they are not in a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I'm waiting for a game when another player selects a game with me then the system will automatically send me to the Game View from the Home page.  NOTE: the `home.ftl` HTML includes a `&lt;meta&gt;` tag that tells the browser to refresh the game every 5 seconds; thus you need to update the `GetHomeRoute` controller to handle the situation when a player is assigned a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a red piece to a white space then the piece should not be droppable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a piece to an occupied space then the piece should not be droppable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a piece to an open space then the piece should be droppable.  NOTE: In this Story the drop action should not do anything; piece movement will be the focus of future stories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I view the board in the browser then my pieces are oriented on the bottom of the board grid just like I would see the board if I were playing in the physical world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player Sign-out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am currently signed in when I see the Home page then I must see a means to sign out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am signed in when I click on the sign out button then I expect to be signed out and taken back to the Home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matchmaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am on the home page when I look at a player who is not in a game then I see some indicator showing that they are not in a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am on the home page when I look at a player who is in a game then I see some indicator showing that they are in a game (so I can't challenge them).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player Turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I make a move then it would be the opposing Player's turn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid Moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am in a game and it's my turn, when I make a valid move then the move should complete without any errors or warning messages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am in a game and it's my turn, when I make an invalid move, then the move should not complete and I should see an error saying I tried to make an invalid move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 3/27/18; Moving a piece to a valid location, then moving it to any other location, causes a NullPointerException.
+    <t>Given that someone else with my name has signed-in when I enter my name in the sign-in form then I expect the system to reject my sign-in and return the sign-in form for me to try a different name.</t>
+  </si>
+  <si>
+    <t>Given that I am signed-in when I navigate to the Home page then I expect to see a list of all other signed-in players.  (NOTE: in the next story you will use this list to pick opponents for checkers games.)</t>
+  </si>
+  <si>
+    <t>Given that I am not signed-in when I navigate to the Home page then I expect to see a message of how many players are signed-in but not a list of them (for privacy reasons).</t>
+  </si>
+  <si>
+    <t>As a Player I want to start a game so that I can play checkers with an opponent.</t>
+  </si>
+  <si>
+    <t>Given that I'm signed in when I view the Home page then I can start a game by selecting a player listed on the Home page.</t>
+  </si>
+  <si>
+    <t>Given that the player I selected isn't yet in a game when I select that player then the system will begin a checkers game and assign me as the starting (Red) player and my opponent as the White player.</t>
+  </si>
+  <si>
+    <t>Given that the player I selected is already in a game when I select that player then the system will return me to the Home page with an error message.</t>
+  </si>
+  <si>
+    <t>MTD; 4/4/18; N/A for the future as now you can only click on players if they are not in a game.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Given that I'm waiting for a game when another player selects a game with me then the system will automatically send me to the Game View from the Home page.  NOTE: the `home.ftl` HTML includes a `&lt;meta&gt;` tag that tells the browser to refresh the game every 5 seconds; thus you need to update the `GetHomeRoute` controller to handle the situation when a player is assigned a game.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I drag a red piece to a white space then the piece should not be droppable.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I drag a piece to an occupied space then the piece should not be droppable.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I drag a piece to an open space then the piece should be droppable.  NOTE: In this Story the drop action should not do anything; piece movement will be the focus of future stories.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I view the board in the browser then my pieces are oriented on the bottom of the board grid just like I would see the board if I were playing in the physical world.</t>
+  </si>
+  <si>
+    <t>Player Sign-out</t>
+  </si>
+  <si>
+    <t>Given that I am currently signed in when I see the Home page then I must see a means to sign out.</t>
+  </si>
+  <si>
+    <t>Given that I am signed in when I click on the sign out button then I expect to be signed out and taken back to the Home page.</t>
+  </si>
+  <si>
+    <t>Matchmaking</t>
+  </si>
+  <si>
+    <t>Given that I am on the home page when I look at a player who is not in a game then I see some indicator showing that they are not in a game.</t>
+  </si>
+  <si>
+    <t>Given that I am on the home page when I look at a player who is in a game then I see some indicator showing that they are in a game (so I can't challenge them).</t>
+  </si>
+  <si>
+    <t>Player Turns</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when I make a move then it would be the opposing Player's turn</t>
+  </si>
+  <si>
+    <t>Valid Moves</t>
+  </si>
+  <si>
+    <t>Given that I am in a game and it's my turn, when I make a valid move then the move should complete without any errors or warning messages.</t>
+  </si>
+  <si>
+    <t>Given that I am in a game and it's my turn, when I make an invalid move, then the move should not complete and I should see an error saying I tried to make an invalid move.</t>
+  </si>
+  <si>
+    <t>MTD; 3/27/18; Moving a piece to a valid location, then moving it to any other location, causes a NullPointerException.
 MTD; 4/4/18; Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Jumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there is an opponents piece I can capture then I am able to make a single jump move and take that piece off the board and advance my piece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/4/18; When taking a jump move and undoing it, you can’t make the move anymore (the piece you jumped was removed from the turn’s board)
+    <t>Jumps</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game and it is currently my turn in the game when there is an opponents piece I can capture then I am able to make a single jump move and take that piece off the board and advance my piece.</t>
+  </si>
+  <si>
+    <t>MTD; 4/4/18; When taking a jump move and undoing it, you can’t make the move anymore (the piece you jumped was removed from the turn’s board)
 MTD; 4/5/18; Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there are 2 or more opponents pieces that I can capture then I am able to make a multiple jump move and move those pieces off the board and advance my piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/4/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when I have multiple jumps that I can take then I am able to choose which jump I can make</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Over</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I win/lose the game then I expect to redirected back to the Home Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and I am unable to  make a move then I will lose the game and be redirected to the Home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when all my pieces have been eliminated from the board then I will lose the game and be redirected to the Homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game, when my opponent loses the game, then I will win the game and be redirected to the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfeiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player when I am in a game then I expect to be able to forfeit the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I quit the application then I expect to forfeit the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player when I forfeit a game then I expect to be redirected to the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game, when my opponent forfeits the game then I will win the game and be redirected to the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/4/18; 500 error given
+    <t>Given that I am a Player in a game and it is currently my turn in the game when there are 2 or more opponents pieces that I can capture then I am able to make a multiple jump move and move those pieces off the board and advance my piece</t>
+  </si>
+  <si>
+    <t>MTD; 4/4/18</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game and it is currently my turn in the game when I have multiple jumps that I can take then I am able to choose which jump I can make</t>
+  </si>
+  <si>
+    <t>Game Over</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when I win/lose the game then I expect to redirected back to the Home Page</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when it is my turn and I am unable to  make a move then I will lose the game and be redirected to the Home page</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when all my pieces have been eliminated from the board then I will lose the game and be redirected to the Homepage</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game, when my opponent loses the game, then I will win the game and be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>Forfeiting</t>
+  </si>
+  <si>
+    <t>Given that I am a Player when I am in a game then I expect to be able to forfeit the game.</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when I quit the application then I expect to forfeit the game.</t>
+  </si>
+  <si>
+    <t>Given that I am a Player when I forfeit a game then I expect to be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game, when my opponent forfeits the game then I will win the game and be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>MTD; 4/4/18; 500 error given
 MTD; 4/5/18; Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Forced Moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a jump move is possible then I have to make the full jump move in order to advance the game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only test the stories above this one. This story and below are not yet implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a multiple jump move is possible then I must complete the entirety of the multiple jump move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am in a game, when it is my turn and more than one jump moves are possible, then I am forced to choose one of them to fully jump through.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when one of my pieces makes it to the row furthest from me then that piece will become a King piece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I have a King piece then it is able to move both forward and backward diagonally.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a player in a game when I have a King piece and a multi jump move is possible then that move can be any combination of forward and backward jumps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Capturing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I have a King when I jump a piece then I expect it to be removed properly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storing Replays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a Player when I complete a game then I expect my game to be stored as a replay for later viewing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing Replays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a Player when I am on the home page then I expect to see a list of my past games as replays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viewing Replays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a Player with replays when I see the list of replays then I expect to see a way to view the replay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a Player with replays when I click to view a reply then I expect to be taken to a replay view of the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player with replays when I view a replay then I am able to view each move in the replay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player Help</t>
+    <t>Forced Moves</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when it is my turn and a jump move is possible then I have to make the full jump move in order to advance the game</t>
+  </si>
+  <si>
+    <t>Only test the stories above this one. This story and below are not yet implemented</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when it is my turn and a multiple jump move is possible then I must complete the entirety of the multiple jump move</t>
+  </si>
+  <si>
+    <t>Given that I am in a game, when it is my turn and more than one jump moves are possible, then I am forced to choose one of them to fully jump through.</t>
+  </si>
+  <si>
+    <t>King Creation</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when one of my pieces makes it to the row furthest from me then that piece will become a King piece.</t>
+  </si>
+  <si>
+    <t>King Movement</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when I have a King piece then it is able to move both forward and backward diagonally.</t>
+  </si>
+  <si>
+    <t>Given that I am a player in a game when I have a King piece and a multi jump move is possible then that move can be any combination of forward and backward jumps.</t>
+  </si>
+  <si>
+    <t>King Capturing</t>
+  </si>
+  <si>
+    <t>Given I have a King when I jump a piece then I expect it to be removed properly.</t>
+  </si>
+  <si>
+    <t>Storing Replays</t>
+  </si>
+  <si>
+    <t>Given I am a Player when I complete a game then I expect my game to be stored as a replay for later viewing.</t>
+  </si>
+  <si>
+    <t>Listing Replays</t>
+  </si>
+  <si>
+    <t>Given I am a Player when I am on the home page then I expect to see a list of my past games as replays.</t>
+  </si>
+  <si>
+    <t>Viewing Replays</t>
+  </si>
+  <si>
+    <t>Given I am a Player with replays when I see the list of replays then I expect to see a way to view the replay.</t>
+  </si>
+  <si>
+    <t>Given I am a Player with replays when I click to view a reply then I expect to be taken to a replay view of the game.</t>
+  </si>
+  <si>
+    <t>Given that I am a Player with replays when I view a replay then I am able to view each move in the replay.</t>
+  </si>
+  <si>
+    <t>Player Help</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; Winning doesn't work .Got rid of all white pieces and nothing happened</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; see above</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; When there are no moves left the game is still active</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; If it is the Player's turn, they are not redirected to the home page until they submit their turn (change your acceptance criteria)</t>
+  </si>
+  <si>
+    <t>Given that I am on the Signin page when I enter a name that contains one or more characters th0at are not alphanumeric or spaces and click the Sign-in button then I expect the system to reject this name and return the Signin form.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -299,30 +321,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -336,6 +342,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -346,113 +359,139 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -464,6 +503,314 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -474,20 +821,17 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -546,30 +890,304 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="106.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="106.875" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="218.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,60 +1195,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C14" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="topRight" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A14" sqref="A14"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="46.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="46.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="46.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="10.89"/>
+    <col min="1" max="1" width="30" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="46.875" style="3" customWidth="1"/>
+    <col min="9" max="1025" width="10.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -656,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -671,9 +1281,14 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -686,9 +1301,14 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -701,27 +1321,37 @@
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="3" t="s">
@@ -731,12 +1361,17 @@
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
@@ -746,12 +1381,17 @@
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="3" t="s">
@@ -761,14 +1401,19 @@
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="3" t="s">
@@ -778,13 +1423,17 @@
       <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
@@ -794,12 +1443,17 @@
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
@@ -807,17 +1461,17 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="73.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
@@ -827,12 +1481,17 @@
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
@@ -842,12 +1501,17 @@
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
@@ -857,12 +1521,17 @@
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="s">
@@ -872,12 +1541,17 @@
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="3" t="s">
@@ -887,708 +1561,798 @@
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="AMJ17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AMJ17"/>
+    </row>
+    <row r="18" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="AMJ18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AMJ18"/>
+    </row>
+    <row r="19" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="8"/>
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="8"/>
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="8"/>
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G47" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E34:E610 G12:G610 C27:C610 E2:E10 G2:G10 C2:C10 E27:E33 C12:C26 E12:E26">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H610 D27:D610 H2:H10 D2:D10 F24 F41:F610 D12:D26 F27:F38">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>AND(ISBLANK(F2),E2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>AND(ISBLANK(F2),E2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>AND(ISBLANK(F3),E3="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>AND(ISBLANK(F3),E3="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="47" priority="10">
       <formula>AND(ISBLANK(F4),E4="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>AND(ISBLANK(F4),E4="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>AND(ISBLANK(F5),E5="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>AND(ISBLANK(F5),E5="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="43" priority="14">
       <formula>AND(ISBLANK(F6),E6="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="42" priority="15">
       <formula>AND(ISBLANK(F6),E6="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>AND(ISBLANK(F7),E7="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="40" priority="17">
       <formula>AND(ISBLANK(F7),E7="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="39" priority="18">
       <formula>AND(ISBLANK(F8),E8="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="38" priority="19">
       <formula>AND(ISBLANK(F8),E8="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="37" priority="20">
       <formula>AND(ISBLANK(F9),E9="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>AND(ISBLANK(F9),E9="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="35" priority="22">
       <formula>AND(ISBLANK(F10),E10="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="34" priority="23">
       <formula>AND(ISBLANK(F10),E10="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>AND(ISBLANK(F12),E12="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>AND(ISBLANK(F12),E12="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>AND(ISBLANK(F13),E13="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>AND(ISBLANK(F13),E13="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>AND(ISBLANK(F14),E14="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>AND(ISBLANK(F14),E14="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>AND(ISBLANK(F15),E15="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>AND(ISBLANK(F15),E15="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="25" priority="32">
       <formula>AND(ISBLANK(F16),E16="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>AND(ISBLANK(F16),E16="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>AND(ISBLANK(F19),E19="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>AND(ISBLANK(F19),E19="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>AND(ISBLANK(F20),E20="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="20" priority="37">
       <formula>AND(ISBLANK(F20),E20="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="19" priority="38">
       <formula>AND(ISBLANK(F17),E17="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="18" priority="39">
       <formula>AND(ISBLANK(F17),E17="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="17" priority="40">
       <formula>AND(ISBLANK(F18),E18="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="16" priority="41">
       <formula>AND(ISBLANK(F18),E18="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="15" priority="42">
       <formula>AND(ISBLANK(F21),E21="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="14" priority="43">
       <formula>AND(ISBLANK(F21),E21="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="13" priority="44">
       <formula>AND(ISBLANK(F22),E22="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="12" priority="45">
       <formula>AND(ISBLANK(F22),E22="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="11" priority="46">
       <formula>AND(ISBLANK(F23),E23="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="10" priority="47">
       <formula>AND(ISBLANK(F23),E23="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 C11 E11">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="9" priority="48" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="8" priority="49" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 H11 F11">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="7" priority="50">
       <formula>AND(ISBLANK(D11),C11="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="6" priority="51">
       <formula>AND(ISBLANK(D11),C11="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>AND(ISBLANK(F25),E25="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="4" priority="53">
       <formula>AND(ISBLANK(F25),E25="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>AND(ISBLANK(F26),E26="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND(ISBLANK(F26),E26="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F40">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="1" priority="56">
       <formula>AND(ISBLANK(F39),E39="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="0" priority="57">
       <formula>AND(ISBLANK(F39),E39="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C47 E2:E47 G2:G47" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C47 E2:E47 G2:G47">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxk2090\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\team-project-2175-swen-261-13-b-checker-masters\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C78703-F59E-476B-B944-60905AF20FD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
   <si>
     <t>Instructions</t>
   </si>
@@ -293,25 +294,34 @@
     <t>AO; 4/5/18</t>
   </si>
   <si>
-    <t>AO; 4/5/18; Winning doesn't work .Got rid of all white pieces and nothing happened</t>
-  </si>
-  <si>
-    <t>AO; 4/5/18; see above</t>
-  </si>
-  <si>
     <t>AO; 4/5/18; When there are no moves left the game is still active</t>
   </si>
   <si>
-    <t>AO; 4/5/18; If it is the Player's turn, they are not redirected to the home page until they submit their turn (change your acceptance criteria)</t>
-  </si>
-  <si>
     <t>Given that I am on the Signin page when I enter a name that contains one or more characters th0at are not alphanumeric or spaces and click the Sign-in button then I expect the system to reject this name and return the Signin form.</t>
+  </si>
+  <si>
+    <t>Given I am a player when I am in a game then I expect to have  a link to request help.</t>
+  </si>
+  <si>
+    <t>Given I am a player when I click the request help link then I expect to be redirected to a help page.</t>
+  </si>
+  <si>
+    <t>Given I am a player when I am on the help page then I expect to be able to return to my game.</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; If it is the Player's turn, they are not redirected to the home page until they submit their turn (change your acceptance criteria); SJD 4/7/18; It must operate that way to stay within the vision document</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; Winning doesn't work .Got rid of all white pieces and nothing happened; SJD; 4/7/18</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; see above; SJD; 4/7/18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1173,21 +1183,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="106.83203125" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="217" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1218,29 +1228,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A14" sqref="A14"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" style="3" customWidth="1"/>
     <col min="2" max="2" width="60" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
     <col min="4" max="4" width="46.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.58203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" customWidth="1"/>
-    <col min="8" max="8" width="46.875" style="3" customWidth="1"/>
-    <col min="9" max="1025" width="10.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" style="3" customWidth="1"/>
+    <col min="9" max="1025" width="10.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -1308,7 +1318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -1328,10 +1338,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
@@ -1348,7 +1358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>19</v>
@@ -1368,7 +1378,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>20</v>
@@ -1388,7 +1398,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>21</v>
@@ -1408,7 +1418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1430,7 +1440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -1450,7 +1460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -1468,7 +1478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>28</v>
@@ -1488,7 +1498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -1508,7 +1518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1528,7 +1538,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>31</v>
@@ -1548,7 +1558,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -1568,7 +1578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1024" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1601,7 @@
       </c>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1024" ht="31" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1611,7 +1621,7 @@
       </c>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1024" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1633,7 +1643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1024" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1652,7 +1662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1024" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1674,7 +1684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1024" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1024" ht="62" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1715,7 +1725,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1024" ht="62" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1737,7 +1747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1024" ht="62" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1024" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1775,7 +1785,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1024" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -1791,13 +1801,13 @@
         <v>49</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1024" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
@@ -1813,10 +1823,10 @@
         <v>84</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1024" ht="47.25" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1024" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1829,13 +1839,13 @@
         <v>49</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1024" ht="31" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
@@ -1848,13 +1858,13 @@
         <v>49</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1024" ht="31" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -1876,7 +1886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1024" ht="31" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>58</v>
       </c>
@@ -1895,7 +1905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
@@ -1914,7 +1924,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>60</v>
       </c>
@@ -1927,13 +1937,13 @@
         <v>61</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
@@ -1953,7 +1963,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>65</v>
       </c>
@@ -1967,7 +1977,7 @@
       </c>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>66</v>
       </c>
@@ -1981,7 +1991,7 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
@@ -1998,7 +2008,7 @@
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>69</v>
       </c>
@@ -2015,7 +2025,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>71</v>
       </c>
@@ -2023,7 +2033,7 @@
       <c r="E40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
@@ -2040,7 +2050,7 @@
       </c>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>74</v>
       </c>
@@ -2057,7 +2067,7 @@
       </c>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>76</v>
       </c>
@@ -2074,7 +2084,7 @@
       </c>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>78</v>
       </c>
@@ -2091,7 +2101,7 @@
       </c>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>80</v>
       </c>
@@ -2099,7 +2109,7 @@
       <c r="E45" s="8"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>81</v>
       </c>
@@ -2107,10 +2117,13 @@
       <c r="E46" s="8"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="B47" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C47" s="8"/>
       <c r="D47" s="3" t="s">
         <v>27</v>
@@ -2120,6 +2133,16 @@
         <v>27</v>
       </c>
       <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="B49" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E34:E610 G12:G610 C27:C610 E2:E10 G2:G10 C2:C10 E27:E33 C12:C26 E12:E26">
@@ -2347,7 +2370,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C47 E2:E47 G2:G47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C47 E2:E47 G2:G47" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -245,9 +245,6 @@
     <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a jump move is possible then I have to make the full jump move in order to advance the game</t>
   </si>
   <si>
-    <t xml:space="preserve">Only test the stories above this one. This story and below are not yet implemented</t>
-  </si>
-  <si>
     <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a multiple jump move is possible then I must complete the entirety of the multiple jump move</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">Given that I am a Player in a game when one of my pieces makes it to the row furthest from me then that piece will become a King piece.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTD; 4/11/18</t>
   </si>
   <si>
     <t xml:space="preserve">King Movement</t>
@@ -1005,10 +1005,10 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="E31" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topRight" activeCell="H41" activeCellId="0" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1715,7 +1715,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1731,13 +1731,10 @@
         <v>30</v>
       </c>
       <c r="G35" s="8"/>
-      <c r="H35" s="3" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="3" t="s">
@@ -1751,7 +1748,7 @@
     </row>
     <row r="37" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="3" t="s">
@@ -1763,12 +1760,12 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="3" t="s">
@@ -1778,9 +1775,14 @@
       <c r="F38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -1795,17 +1797,27 @@
       <c r="F39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -1820,7 +1832,12 @@
       <c r="F41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="8"/>
+      <c r="G41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="93">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -1005,10 +1005,10 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="E31" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
-      <selection pane="topRight" activeCell="H41" activeCellId="0" sqref="H41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="E34" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topRight" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1839,7 +1839,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
@@ -1854,7 +1854,12 @@
       <c r="F42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karl/code/java/WebCheckers/etc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\team-project-2175-swen-261-13-b-checker-masters\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75A22AA-6468-42C0-A62E-755D5AE49C0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="13420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="13420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
   <si>
     <t>Instructions</t>
   </si>
@@ -323,11 +324,14 @@
   <si>
     <t>KC; 4/11/18</t>
   </si>
+  <si>
+    <t>SJD; 4/12/18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -425,35 +429,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <fill>
         <patternFill>
@@ -835,46 +811,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -971,6 +907,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1238,21 +1177,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="106.83203125" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="217" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1283,16 +1222,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="H45" sqref="H45"/>
+      <selection pane="topRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" style="3" customWidth="1"/>
     <col min="2" max="2" width="60" style="3" customWidth="1"/>
@@ -1305,7 +1244,7 @@
     <col min="9" max="1025" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1331,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +1292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1373,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1393,7 +1332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -1413,7 +1352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1433,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>23</v>
@@ -1453,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1473,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -1495,7 +1434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -1515,7 +1454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -1533,7 +1472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
@@ -1553,7 +1492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -1573,7 +1512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>33</v>
@@ -1593,7 +1532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>34</v>
@@ -1613,7 +1552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>35</v>
@@ -1633,7 +1572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1655,7 +1594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +1613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1696,7 +1635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
@@ -1715,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1737,7 +1676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -1759,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1778,7 +1717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -1800,7 +1739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
@@ -1819,7 +1758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1838,7 +1777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -1860,7 +1799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
@@ -1879,7 +1818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
@@ -1898,7 +1837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -1917,7 +1856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
@@ -1939,7 +1878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
@@ -1958,7 +1897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
@@ -1977,7 +1916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>66</v>
       </c>
@@ -1996,7 +1935,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -2013,7 +1952,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
@@ -2027,7 +1966,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
@@ -2041,7 +1980,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
@@ -2063,7 +2002,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -2085,7 +2024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>78</v>
       </c>
@@ -2098,7 +2037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -2120,7 +2059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
@@ -2142,7 +2081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>83</v>
       </c>
@@ -2157,9 +2096,14 @@
       <c r="F43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="G43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>85</v>
       </c>
@@ -2174,25 +2118,40 @@
       <c r="F44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="G44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="G45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="G46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
@@ -2214,7 +2173,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B48" s="3" t="s">
         <v>91</v>
       </c>
@@ -2225,7 +2184,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="31" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
         <v>92</v>
       </c>
@@ -2238,231 +2197,231 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E10 G2:G10 C2:C10 C12:C610 E12:E610 G12:G610">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H10 D2:D10 F24 F41:F610 D12:D610 F27:F38 H12:H610">
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="55" priority="6">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>AND(ISBLANK(F2),E2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>AND(ISBLANK(F2),E2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="53" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>AND(ISBLANK(F3),E3="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>AND(ISBLANK(F3),E3="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="51" priority="10">
+    <cfRule type="expression" dxfId="47" priority="10">
       <formula>AND(ISBLANK(F4),E4="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="11">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>AND(ISBLANK(F4),E4="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="49" priority="12">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>AND(ISBLANK(F5),E5="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="13">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>AND(ISBLANK(F5),E5="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="47" priority="14">
+    <cfRule type="expression" dxfId="43" priority="14">
       <formula>AND(ISBLANK(F6),E6="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="15">
+    <cfRule type="expression" dxfId="42" priority="15">
       <formula>AND(ISBLANK(F6),E6="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="45" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>AND(ISBLANK(F7),E7="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="17">
+    <cfRule type="expression" dxfId="40" priority="17">
       <formula>AND(ISBLANK(F7),E7="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="43" priority="18">
+    <cfRule type="expression" dxfId="39" priority="18">
       <formula>AND(ISBLANK(F8),E8="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="19">
+    <cfRule type="expression" dxfId="38" priority="19">
       <formula>AND(ISBLANK(F8),E8="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="41" priority="20">
+    <cfRule type="expression" dxfId="37" priority="20">
       <formula>AND(ISBLANK(F9),E9="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="21">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>AND(ISBLANK(F9),E9="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="39" priority="22">
+    <cfRule type="expression" dxfId="35" priority="22">
       <formula>AND(ISBLANK(F10),E10="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="23">
+    <cfRule type="expression" dxfId="34" priority="23">
       <formula>AND(ISBLANK(F10),E10="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>AND(ISBLANK(F12),E12="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>AND(ISBLANK(F12),E12="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="35" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>AND(ISBLANK(F13),E13="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="27">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>AND(ISBLANK(F13),E13="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>AND(ISBLANK(F14),E14="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>AND(ISBLANK(F14),E14="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>AND(ISBLANK(F15),E15="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>AND(ISBLANK(F15),E15="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="25" priority="32">
       <formula>AND(ISBLANK(F16),E16="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>AND(ISBLANK(F16),E16="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="27" priority="34">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>AND(ISBLANK(F19),E19="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>AND(ISBLANK(F19),E19="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="25" priority="36">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>AND(ISBLANK(F20),E20="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="37">
+    <cfRule type="expression" dxfId="20" priority="37">
       <formula>AND(ISBLANK(F20),E20="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="23" priority="38">
+    <cfRule type="expression" dxfId="19" priority="38">
       <formula>AND(ISBLANK(F17),E17="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="39">
+    <cfRule type="expression" dxfId="18" priority="39">
       <formula>AND(ISBLANK(F17),E17="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="21" priority="40">
+    <cfRule type="expression" dxfId="17" priority="40">
       <formula>AND(ISBLANK(F18),E18="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="41">
+    <cfRule type="expression" dxfId="16" priority="41">
       <formula>AND(ISBLANK(F18),E18="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="19" priority="42">
+    <cfRule type="expression" dxfId="15" priority="42">
       <formula>AND(ISBLANK(F21),E21="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="43">
+    <cfRule type="expression" dxfId="14" priority="43">
       <formula>AND(ISBLANK(F21),E21="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="17" priority="44">
+    <cfRule type="expression" dxfId="13" priority="44">
       <formula>AND(ISBLANK(F22),E22="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="45">
+    <cfRule type="expression" dxfId="12" priority="45">
       <formula>AND(ISBLANK(F22),E22="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="15" priority="46">
+    <cfRule type="expression" dxfId="11" priority="46">
       <formula>AND(ISBLANK(F23),E23="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="47">
+    <cfRule type="expression" dxfId="10" priority="47">
       <formula>AND(ISBLANK(F23),E23="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 C11 E11">
-    <cfRule type="cellIs" dxfId="13" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="48" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="49" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 H11 F11">
-    <cfRule type="expression" dxfId="11" priority="50">
+    <cfRule type="expression" dxfId="7" priority="50">
       <formula>AND(ISBLANK(D11),C11="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="51">
+    <cfRule type="expression" dxfId="6" priority="51">
       <formula>AND(ISBLANK(D11),C11="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="9" priority="52">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>AND(ISBLANK(F25),E25="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="53">
+    <cfRule type="expression" dxfId="4" priority="53">
       <formula>AND(ISBLANK(F25),E25="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="7" priority="54">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>AND(ISBLANK(F26),E26="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="55">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND(ISBLANK(F26),E26="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F40">
-    <cfRule type="expression" dxfId="5" priority="56">
+    <cfRule type="expression" dxfId="1" priority="56">
       <formula>AND(ISBLANK(F39),E39="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="57">
+    <cfRule type="expression" dxfId="0" priority="57">
       <formula>AND(ISBLANK(F39),E39="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C47 E2:E47 G2:G49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C47 E2:E47 G2:G49" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="97">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a jump move is possible then I have to make the full jump move in order to advance the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTD; 4/17/18</t>
   </si>
   <si>
     <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a multiple jump move is possible then I must complete the entirety of the multiple jump move</t>
@@ -1010,10 +1013,10 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="G34" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="topRight" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="G35" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topRight" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1722,7 +1725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -1737,11 +1740,16 @@
       <c r="F35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="3" t="s">
@@ -1751,11 +1759,16 @@
       <c r="F36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="3" t="s">
@@ -1765,14 +1778,19 @@
       <c r="F37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="3" t="s">
@@ -1786,15 +1804,15 @@
         <v>16</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="3" t="s">
@@ -1808,12 +1826,12 @@
         <v>16</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="7"/>
       <c r="E40" s="7"/>
@@ -1821,15 +1839,15 @@
         <v>16</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="3" t="s">
@@ -1843,15 +1861,15 @@
         <v>16</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="3" t="s">
@@ -1865,15 +1883,15 @@
         <v>16</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="3" t="s">
@@ -1887,15 +1905,15 @@
         <v>16</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="3" t="s">
@@ -1909,12 +1927,12 @@
         <v>16</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="7"/>
       <c r="E45" s="7"/>
@@ -1922,12 +1940,12 @@
         <v>16</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="7"/>
       <c r="E46" s="7"/>
@@ -1935,15 +1953,15 @@
         <v>16</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="3" t="s">
@@ -1957,29 +1975,29 @@
         <v>16</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -314,13 +314,10 @@
     <t xml:space="preserve">Given I am a player when I am in a game then I expect to have  a link to request help.</t>
   </si>
   <si>
-    <t xml:space="preserve">KC; 4/11/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a player when I click the request help link then I expect to be redirected to a help page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a player when I am on the help page then I expect to be able to return to my game.</t>
+    <t xml:space="preserve">Given I am a player when I click the request help link then I expect to be shown where I can make a move.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I am a player when I make a move after requesting help then I expect the valid move spaces to no longer be indicated.</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1010,10 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="G35" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="topRight" activeCell="H47" activeCellId="0" sqref="H47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="G34" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topRight" activeCell="G49" activeCellId="0" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1956,7 +1953,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
@@ -1971,34 +1968,19 @@
       <c r="F47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3" t="s">
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="G49" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E10 G2:G10 C2:C10 C12:C610 E12:E610 G12:G610">

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\SWEN-Project\team-project-2175-swen-261-13-b-checker-masters\etc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA77F593-D7B0-4FE4-BE8F-AF3EC88CA26C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Test Plan" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,313 +26,316 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
-  <si>
-    <t xml:space="preserve">Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter your team name as specified in the cell below. When doing cross-team and Freshman Seminar acceptance testing, enter the name for the testing group.
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="98">
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Enter your team name as specified in the cell below. When doing cross-team and Freshman Seminar acceptance testing, enter the name for the testing group.
 Fill-in the Test Plan worksheet with all the remaining User Stories in your Product Backlog. As your user stories are refined, add the acceptance criteria for each user story. Use a separate worksheet to provide any specific test case data that the tester needs to use.
 As tests are performed in each sprint, indicate Pass/Fail. The tester should add initials and a date in the comments column. If the test failed, the tester is required to add additional information about the failure. The status cell will color code based on the test results. The comments cell will color code when a test result exists but no information is entered.
 Save this test plan with a name formatted as "term-swen-261-sec-letter name", e.g. 2171-swen-261-10-a Speedy Racers.xslx.
 Submit this file per the instructions specified for the sprint submissions, cross-team testing, and Freshman Seminar testing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Team Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2175-swen-261-13-b Checker Masters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Team Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fill in when doing cross-team or Freshman Seminar testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criterion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester initials; date; comments (required if test failed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Player I want to sign-in so that I can play a game of checkers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I have not yet signed in when I see the Home page then I must see a means to sign-in. (such as a link or button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJD; 2/28/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 3/27/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO; 4/5/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am not signed-in when I do click on the sign-in link then I expect to be taken to the Signin page, with a means to enter a player name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that no one else is using my name when I enter my name containing only alphanumeric characters or spaces in the sign-in form and click the Sign-in button then I expect the system to reserve my name and navigate back to the Home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am on the Signin page when I enter a name that contains one or more characters th0at are not alphanumeric or spaces and click the Sign-in button then I expect the system to reject this name and return the Signin form.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJD; 2/28/18; takes non-alphanumerical characters;
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>2175-swen-261-13-b Checker Masters</t>
+  </si>
+  <si>
+    <t>Testing Team Name</t>
+  </si>
+  <si>
+    <t>fill in when doing cross-team or Freshman Seminar testing</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Acceptance Criterion</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Tester initials; date; comments (required if test failed)</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>As a Player I want to sign-in so that I can play a game of checkers.</t>
+  </si>
+  <si>
+    <t>Given that I have not yet signed in when I see the Home page then I must see a means to sign-in. (such as a link or button)</t>
+  </si>
+  <si>
+    <t>SJD; 2/28/18</t>
+  </si>
+  <si>
+    <t>MTD; 3/27/18</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18</t>
+  </si>
+  <si>
+    <t>Given that I am not signed-in when I do click on the sign-in link then I expect to be taken to the Signin page, with a means to enter a player name.</t>
+  </si>
+  <si>
+    <t>Given that no one else is using my name when I enter my name containing only alphanumeric characters or spaces in the sign-in form and click the Sign-in button then I expect the system to reserve my name and navigate back to the Home page.</t>
+  </si>
+  <si>
+    <t>Given that I am on the Signin page when I enter a name that contains one or more characters th0at are not alphanumeric or spaces and click the Sign-in button then I expect the system to reject this name and return the Signin form.</t>
+  </si>
+  <si>
+    <t>SJD; 2/28/18; takes non-alphanumerical characters;
 SJD; 2/28/18; Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Given that someone else with my name has signed-in when I enter my name in the sign-in form then I expect the system to reject my sign-in and return the sign-in form for me to try a different name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am signed-in when I navigate to the Home page then I expect to see a list of all other signed-in players.  (NOTE: in the next story you will use this list to pick opponents for checkers games.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am not signed-in when I navigate to the Home page then I expect to see a message of how many players are signed-in but not a list of them (for privacy reasons).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Player I want to start a game so that I can play checkers with an opponent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I'm signed in when I view the Home page then I can start a game by selecting a player listed on the Home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that the player I selected isn't yet in a game when I select that player then the system will begin a checkers game and assign me as the starting (Red) player and my opponent as the White player.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that the player I selected is already in a game when I select that player then the system will return me to the Home page with an error message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/4/18; N/A for the future as now you can only click on players if they are not in a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JK; 4/16/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I'm waiting for a game when another player selects a game with me then the system will automatically send me to the Game View from the Home page.  NOTE: the `home.ftl` HTML includes a `&lt;meta&gt;` tag that tells the browser to refresh the game every 5 seconds; thus you need to update the `GetHomeRoute` controller to handle the situation when a player is assigned a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a red piece to a white space then the piece should not be droppable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a piece to an occupied space then the piece should not be droppable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I drag a piece to an open space then the piece should be droppable.  NOTE: In this Story the drop action should not do anything; piece movement will be the focus of future stories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a valid, initial game board when I view the board in the browser then my pieces are oriented on the bottom of the board grid just like I would see the board if I were playing in the physical world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player Sign-out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am currently signed in when I see the Home page then I must see a means to sign out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am signed in when I click on the sign out button then I expect to be signed out and taken back to the Home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matchmaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am on the home page when I look at a player who is not in a game then I see some indicator showing that they are not in a game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am on the home page when I look at a player who is in a game then I see some indicator showing that they are in a game (so I can't challenge them).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player Turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I make a move then it would be the opposing Player's turn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid Moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am in a game and it's my turn, when I make a valid move then the move should complete without any errors or warning messages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am in a game and it's my turn, when I make an invalid move, then the move should not complete and I should see an error saying I tried to make an invalid move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 3/27/18; Moving a piece to a valid location, then moving it to any other location, causes a NullPointerException.
+    <t>Given that someone else with my name has signed-in when I enter my name in the sign-in form then I expect the system to reject my sign-in and return the sign-in form for me to try a different name.</t>
+  </si>
+  <si>
+    <t>Given that I am signed-in when I navigate to the Home page then I expect to see a list of all other signed-in players.  (NOTE: in the next story you will use this list to pick opponents for checkers games.)</t>
+  </si>
+  <si>
+    <t>Given that I am not signed-in when I navigate to the Home page then I expect to see a message of how many players are signed-in but not a list of them (for privacy reasons).</t>
+  </si>
+  <si>
+    <t>As a Player I want to start a game so that I can play checkers with an opponent.</t>
+  </si>
+  <si>
+    <t>Given that I'm signed in when I view the Home page then I can start a game by selecting a player listed on the Home page.</t>
+  </si>
+  <si>
+    <t>Given that the player I selected isn't yet in a game when I select that player then the system will begin a checkers game and assign me as the starting (Red) player and my opponent as the White player.</t>
+  </si>
+  <si>
+    <t>Given that the player I selected is already in a game when I select that player then the system will return me to the Home page with an error message.</t>
+  </si>
+  <si>
+    <t>MTD; 4/4/18; N/A for the future as now you can only click on players if they are not in a game.</t>
+  </si>
+  <si>
+    <t>JK; 4/16/18</t>
+  </si>
+  <si>
+    <t>Given that I'm waiting for a game when another player selects a game with me then the system will automatically send me to the Game View from the Home page.  NOTE: the `home.ftl` HTML includes a `&lt;meta&gt;` tag that tells the browser to refresh the game every 5 seconds; thus you need to update the `GetHomeRoute` controller to handle the situation when a player is assigned a game.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I drag a red piece to a white space then the piece should not be droppable.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I drag a piece to an occupied space then the piece should not be droppable.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I drag a piece to an open space then the piece should be droppable.  NOTE: In this Story the drop action should not do anything; piece movement will be the focus of future stories.</t>
+  </si>
+  <si>
+    <t>Given a valid, initial game board when I view the board in the browser then my pieces are oriented on the bottom of the board grid just like I would see the board if I were playing in the physical world.</t>
+  </si>
+  <si>
+    <t>Player Sign-out</t>
+  </si>
+  <si>
+    <t>Given that I am currently signed in when I see the Home page then I must see a means to sign out.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Given that I am signed in when I click on the sign out button then I expect to be signed out and taken back to the Home page.</t>
+  </si>
+  <si>
+    <t>Matchmaking</t>
+  </si>
+  <si>
+    <t>Given that I am on the home page when I look at a player who is not in a game then I see some indicator showing that they are not in a game.</t>
+  </si>
+  <si>
+    <t>Given that I am on the home page when I look at a player who is in a game then I see some indicator showing that they are in a game (so I can't challenge them).</t>
+  </si>
+  <si>
+    <t>Player Turns</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when I make a move then it would be the opposing Player's turn</t>
+  </si>
+  <si>
+    <t>Valid Moves</t>
+  </si>
+  <si>
+    <t>Given that I am in a game and it's my turn, when I make a valid move then the move should complete without any errors or warning messages.</t>
+  </si>
+  <si>
+    <t>Given that I am in a game and it's my turn, when I make an invalid move, then the move should not complete and I should see an error saying I tried to make an invalid move.</t>
+  </si>
+  <si>
+    <t>MTD; 3/27/18; Moving a piece to a valid location, then moving it to any other location, causes a NullPointerException.
 MTD; 4/4/18; Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Jumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there is an opponents piece I can capture then I am able to make a single jump move and take that piece off the board and advance my piece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/4/18; When taking a jump move and undoing it, you can’t make the move anymore (the piece you jumped was removed from the turn’s board)
+    <t>Jumps</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game and it is currently my turn in the game when there is an opponents piece I can capture then I am able to make a single jump move and take that piece off the board and advance my piece.</t>
+  </si>
+  <si>
+    <t>MTD; 4/4/18; When taking a jump move and undoing it, you can’t make the move anymore (the piece you jumped was removed from the turn’s board)
 MTD; 4/5/18; Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when there are 2 or more opponents pieces that I can capture then I am able to make a multiple jump move and move those pieces off the board and advance my piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/4/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game and it is currently my turn in the game when I have multiple jumps that I can take then I am able to choose which jump I can make</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game Over</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I win/lose the game then I expect to redirected back to the Home Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO; 4/5/18; Winning doesn't work .Got rid of all white pieces and nothing happened; SJD; 4/7/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and I am unable to  make a move then I will lose the game and be redirected to the Home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO; 4/5/18; When there are no moves left the game is still active
+    <t>Given that I am a Player in a game and it is currently my turn in the game when there are 2 or more opponents pieces that I can capture then I am able to make a multiple jump move and move those pieces off the board and advance my piece</t>
+  </si>
+  <si>
+    <t>MTD; 4/4/18</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game and it is currently my turn in the game when I have multiple jumps that I can take then I am able to choose which jump I can make</t>
+  </si>
+  <si>
+    <t>Game Over</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when I win/lose the game then I expect to redirected back to the Home Page</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; Winning doesn't work .Got rid of all white pieces and nothing happened; SJD; 4/7/18</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when it is my turn and I am unable to  make a move then I will lose the game and be redirected to the Home page</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; When there are no moves left the game is still active
 MTD; 4/7/18; Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Given that I am a Player in a game when all my pieces have been eliminated from the board then I will lose the game and be redirected to the Homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AO; 4/5/18; see above; SJD; 4/7/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game, when my opponent loses the game, then I will win the game and be redirected to the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfeiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player when I am in a game then I expect to be able to forfeit the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I quit the application then I expect to forfeit the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player when I forfeit a game then I expect to be redirected to the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game, when my opponent forfeits the game then I will win the game and be redirected to the home page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/4/18; 500 error given
+    <t>Given that I am a Player in a game when all my pieces have been eliminated from the board then I will lose the game and be redirected to the Homepage</t>
+  </si>
+  <si>
+    <t>AO; 4/5/18; see above; SJD; 4/7/18</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game, when my opponent loses the game, then I will win the game and be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>Forfeiting</t>
+  </si>
+  <si>
+    <t>Given that I am a Player when I am in a game then I expect to be able to forfeit the game.</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when I quit the application then I expect to forfeit the game.</t>
+  </si>
+  <si>
+    <t>Given that I am a Player when I forfeit a game then I expect to be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game, when my opponent forfeits the game then I will win the game and be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>MTD; 4/4/18; 500 error given
 MTD; 4/5/18; Resolved</t>
   </si>
   <si>
-    <t xml:space="preserve">AO; 4/5/18; If it is the Player's turn, they are not redirected to the home page until they submit their turn (change your acceptance criteria); SJD 4/7/18; It must operate that way to stay within the vision document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forced Moves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a jump move is possible then I have to make the full jump move in order to advance the game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/17/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when it is my turn and a multiple jump move is possible then I must complete the entirety of the multiple jump move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am in a game, when it is my turn and more than one jump moves are possible, then I am forced to choose one of them to fully jump through.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when one of my pieces makes it to the row furthest from me then that piece will become a King piece.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTD; 4/11/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player in a game when I have a King piece then it is able to move both forward and backward diagonally.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a player in a game when I have a King piece and a multi jump move is possible then that move can be any combination of forward and backward jumps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Capturing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I have a King when I jump a piece then I expect it to be removed properly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storing Replays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a Player when I complete a game then I expect my game to be stored as a replay for later viewing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listing Replays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a Player when I am on the home page then I expect to see a list of my past games as replays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJD; 4/12/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viewing Replays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a Player with replays when I see the list of replays then I expect to see a way to view the replay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a Player with replays when I click to view a reply then I expect to be taken to a replay view of the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given that I am a Player with replays when I view a replay then I am able to view each move in the replay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player Help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a player when I am in a game then I expect to have  a link to request help.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a player when I click the request help link then I expect to be shown where I can make a move.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given I am a player when I make a move after requesting help then I expect the valid move spaces to no longer be indicated.</t>
+    <t>AO; 4/5/18; If it is the Player's turn, they are not redirected to the home page until they submit their turn (change your acceptance criteria); SJD 4/7/18; It must operate that way to stay within the vision document</t>
+  </si>
+  <si>
+    <t>Forced Moves</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when it is my turn and a jump move is possible then I have to make the full jump move in order to advance the game</t>
+  </si>
+  <si>
+    <t>MTD; 4/17/18</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when it is my turn and a multiple jump move is possible then I must complete the entirety of the multiple jump move</t>
+  </si>
+  <si>
+    <t>Given that I am in a game, when it is my turn and more than one jump moves are possible, then I am forced to choose one of them to fully jump through.</t>
+  </si>
+  <si>
+    <t>King Creation</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when one of my pieces makes it to the row furthest from me then that piece will become a King piece.</t>
+  </si>
+  <si>
+    <t>MTD; 4/11/18</t>
+  </si>
+  <si>
+    <t>King Movement</t>
+  </si>
+  <si>
+    <t>Given that I am a Player in a game when I have a King piece then it is able to move both forward and backward diagonally.</t>
+  </si>
+  <si>
+    <t>Given that I am a player in a game when I have a King piece and a multi jump move is possible then that move can be any combination of forward and backward jumps.</t>
+  </si>
+  <si>
+    <t>King Capturing</t>
+  </si>
+  <si>
+    <t>Given I have a King when I jump a piece then I expect it to be removed properly.</t>
+  </si>
+  <si>
+    <t>Storing Replays</t>
+  </si>
+  <si>
+    <t>Given I am a Player when I complete a game then I expect my game to be stored as a replay for later viewing.</t>
+  </si>
+  <si>
+    <t>Listing Replays</t>
+  </si>
+  <si>
+    <t>Given I am a Player when I am on the home page then I expect to see a list of my past games as replays.</t>
+  </si>
+  <si>
+    <t>SJD; 4/12/18</t>
+  </si>
+  <si>
+    <t>Viewing Replays</t>
+  </si>
+  <si>
+    <t>Given I am a Player with replays when I see the list of replays then I expect to see a way to view the replay.</t>
+  </si>
+  <si>
+    <t>Given I am a Player with replays when I click to view a reply then I expect to be taken to a replay view of the game.</t>
+  </si>
+  <si>
+    <t>Given that I am a Player with replays when I view a replay then I am able to view each move in the replay.</t>
+  </si>
+  <si>
+    <t>Player Help</t>
+  </si>
+  <si>
+    <t>Given I am a player when I am in a game then I expect to have  a link to request help.</t>
+  </si>
+  <si>
+    <t>Given I am a player when I click the request help link then I expect to be shown where I can make a move.</t>
+  </si>
+  <si>
+    <t>Given I am a player when I make a move after requesting help then I expect the valid move spaces to no longer be indicated.</t>
+  </si>
+  <si>
+    <t>SJD; 4/17/18</t>
+  </si>
+  <si>
+    <t>SJD;4/17/18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -336,30 +344,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -383,105 +375,130 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -493,6 +510,314 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -503,314 +828,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -820,73 +837,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -945,30 +897,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="106.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="106.796875" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="217" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -976,60 +1236,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="G34" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="topRight" activeCell="G49" activeCellId="0" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A34" sqref="A34"/>
+      <selection pane="topRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="46.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="46.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.83"/>
+    <col min="1" max="1" width="30" style="3" customWidth="1"/>
+    <col min="2" max="2" width="60" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="8" width="46.796875" style="3" customWidth="1"/>
+    <col min="9" max="1025" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1097,7 +1349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1117,7 +1369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -1137,7 +1389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1157,7 +1409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>23</v>
@@ -1177,7 +1429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -1197,7 +1449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -1239,7 +1491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -1259,7 +1511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
@@ -1279,7 +1531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -1299,7 +1551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>33</v>
@@ -1319,7 +1571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>34</v>
@@ -1339,7 +1591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>35</v>
@@ -1359,7 +1611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1381,7 +1633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1400,7 +1652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
@@ -1422,7 +1674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
@@ -1441,7 +1693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1463,7 +1715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
@@ -1485,7 +1737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>47</v>
       </c>
@@ -1504,7 +1756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1526,7 +1778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
@@ -1545,7 +1797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
@@ -1564,7 +1816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1586,7 +1838,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
@@ -1605,7 +1857,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1624,7 +1876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
@@ -1643,7 +1895,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -1665,7 +1917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1684,7 +1936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>66</v>
       </c>
@@ -1703,7 +1955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="77.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
@@ -1722,7 +1974,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -1744,7 +1996,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
@@ -1763,7 +2015,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
@@ -1782,7 +2034,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
@@ -1804,7 +2056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
@@ -1826,7 +2078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -1839,7 +2091,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
@@ -1861,7 +2113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
@@ -1883,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>85</v>
       </c>
@@ -1905,7 +2157,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>88</v>
       </c>
@@ -1927,7 +2179,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
@@ -1940,7 +2192,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
@@ -1953,7 +2205,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
@@ -1968,257 +2220,267 @@
       <c r="F47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E10 G2:G10 C2:C10 C12:C610 E12:E610 G12:G610">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H10 D2:D10 F24 F41:F610 D12:D610 F27:F38 H12:H610">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>AND(ISBLANK(D2),C2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>AND(ISBLANK(D2),C2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>AND(ISBLANK(F2),E2="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>AND(ISBLANK(F2),E2="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>AND(ISBLANK(F3),E3="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>AND(ISBLANK(F3),E3="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" dxfId="47" priority="10">
       <formula>AND(ISBLANK(F4),E4="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>AND(ISBLANK(F4),E4="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>AND(ISBLANK(F5),E5="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" dxfId="44" priority="13">
       <formula>AND(ISBLANK(F5),E5="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" dxfId="43" priority="14">
       <formula>AND(ISBLANK(F6),E6="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" dxfId="42" priority="15">
       <formula>AND(ISBLANK(F6),E6="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>AND(ISBLANK(F7),E7="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" dxfId="40" priority="17">
       <formula>AND(ISBLANK(F7),E7="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" dxfId="39" priority="18">
       <formula>AND(ISBLANK(F8),E8="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" dxfId="38" priority="19">
       <formula>AND(ISBLANK(F8),E8="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" dxfId="37" priority="20">
       <formula>AND(ISBLANK(F9),E9="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>AND(ISBLANK(F9),E9="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="expression" dxfId="35" priority="22">
       <formula>AND(ISBLANK(F10),E10="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+    <cfRule type="expression" dxfId="34" priority="23">
       <formula>AND(ISBLANK(F10),E10="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>AND(ISBLANK(F12),E12="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>AND(ISBLANK(F12),E12="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>AND(ISBLANK(F13),E13="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>AND(ISBLANK(F13),E13="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>AND(ISBLANK(F14),E14="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>AND(ISBLANK(F14),E14="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>AND(ISBLANK(F15),E15="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" dxfId="26" priority="31">
       <formula>AND(ISBLANK(F15),E15="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" dxfId="25" priority="32">
       <formula>AND(ISBLANK(F16),E16="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>AND(ISBLANK(F16),E16="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>AND(ISBLANK(F19),E19="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>AND(ISBLANK(F19),E19="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>AND(ISBLANK(F20),E20="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="expression" dxfId="20" priority="37">
       <formula>AND(ISBLANK(F20),E20="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" dxfId="19" priority="38">
       <formula>AND(ISBLANK(F17),E17="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="expression" dxfId="18" priority="39">
       <formula>AND(ISBLANK(F17),E17="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" dxfId="17" priority="40">
       <formula>AND(ISBLANK(F18),E18="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" dxfId="16" priority="41">
       <formula>AND(ISBLANK(F18),E18="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" dxfId="15" priority="42">
       <formula>AND(ISBLANK(F21),E21="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" dxfId="14" priority="43">
       <formula>AND(ISBLANK(F21),E21="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="expression" dxfId="13" priority="44">
       <formula>AND(ISBLANK(F22),E22="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" dxfId="12" priority="45">
       <formula>AND(ISBLANK(F22),E22="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="expression" dxfId="11" priority="46">
       <formula>AND(ISBLANK(F23),E23="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="expression" dxfId="10" priority="47">
       <formula>AND(ISBLANK(F23),E23="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 C11 E11">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="cellIs" dxfId="9" priority="48" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+    <cfRule type="cellIs" dxfId="8" priority="49" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 H11 F11">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" dxfId="7" priority="50">
       <formula>AND(ISBLANK(D11),C11="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+    <cfRule type="expression" dxfId="6" priority="51">
       <formula>AND(ISBLANK(D11),C11="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+    <cfRule type="expression" dxfId="5" priority="52">
       <formula>AND(ISBLANK(F25),E25="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
+    <cfRule type="expression" dxfId="4" priority="53">
       <formula>AND(ISBLANK(F25),E25="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>AND(ISBLANK(F26),E26="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND(ISBLANK(F26),E26="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F40">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+    <cfRule type="expression" dxfId="1" priority="56">
       <formula>AND(ISBLANK(F39),E39="Pass")</formula>
     </cfRule>
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+    <cfRule type="expression" dxfId="0" priority="57">
       <formula>AND(ISBLANK(F39),E39="Fail")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C47 E2:E47 G2:G49" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C47 E2:E47 G2:G49" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>